--- a/Inputs/Pacific_Cross_Lifecare/addons.xlsx
+++ b/Inputs/Pacific_Cross_Lifecare/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Scans &amp; Diagnostic Tests" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,25 +230,7 @@
     <t xml:space="preserve">c1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Covered up to USD 150,000 with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> USD 1,000 deductible</t>
-    </r>
+    <t xml:space="preserve">Covered up to USD 150,000 with  USD 1,000 deductible</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to USD 150,000 with  USD 2,500 deductible</t>
@@ -326,10 +308,10 @@
     <t xml:space="preserve">coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">ageStart</t>
+    <t xml:space="preserve">minAge</t>
   </si>
   <si>
-    <t xml:space="preserve">ageEnd</t>
+    <t xml:space="preserve">maxAge</t>
   </si>
   <si>
     <t xml:space="preserve">copay</t>
@@ -387,7 +369,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="[$USD]\ #,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -445,12 +427,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -589,7 +565,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,11 +670,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,35 +686,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="15" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,7 +802,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.38"/>
@@ -1138,7 +1110,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1406,11 +1378,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.21"/>
@@ -1443,7 +1415,7 @@
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="5" t="n">
@@ -1518,7 +1490,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -1543,7 +1515,7 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -1568,7 +1540,7 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="5" t="n">
@@ -1593,7 +1565,7 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="5" t="n">
@@ -1618,7 +1590,7 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="5" t="n">
@@ -1643,7 +1615,7 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="5" t="n">
@@ -1686,7 +1658,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.87"/>
@@ -1887,7 +1859,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2084,7 +2056,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="105.76"/>
   </cols>
@@ -2284,7 +2256,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="104.57"/>
@@ -2468,7 +2440,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.48"/>
@@ -2744,7 +2716,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
@@ -2752,7 +2724,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2784,10 +2756,10 @@
       <c r="B2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E2" s="5" t="n">
@@ -2811,10 +2783,10 @@
       <c r="B3" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="5" t="n">
@@ -2839,10 +2811,10 @@
       <c r="B4" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="5" t="n">
@@ -2904,11 +2876,11 @@
   </sheetPr>
   <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.2"/>
   </cols>
@@ -2958,7 +2930,7 @@
       <c r="E2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="n">
+      <c r="F2" s="28" t="n">
         <v>1686</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -2967,7 +2939,7 @@
       <c r="H2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -2990,7 +2962,7 @@
       <c r="E3" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="31" t="n">
+      <c r="F3" s="30" t="n">
         <v>1406</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -2999,7 +2971,7 @@
       <c r="H3" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -3022,7 +2994,7 @@
       <c r="E4" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="30" t="n">
         <v>1667</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -3031,7 +3003,7 @@
       <c r="H4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -3054,7 +3026,7 @@
       <c r="E5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="30" t="n">
         <v>1803</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -3063,7 +3035,7 @@
       <c r="H5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -3086,7 +3058,7 @@
       <c r="E6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="30" t="n">
         <v>1934</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -3095,7 +3067,7 @@
       <c r="H6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="0" t="s">
@@ -3118,7 +3090,7 @@
       <c r="E7" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="30" t="n">
         <v>2075</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -3127,7 +3099,7 @@
       <c r="H7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -3150,7 +3122,7 @@
       <c r="E8" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="30" t="n">
         <v>2221</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -3159,7 +3131,7 @@
       <c r="H8" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -3182,7 +3154,7 @@
       <c r="E9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="30" t="n">
         <v>2361</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -3191,7 +3163,7 @@
       <c r="H9" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -3214,7 +3186,7 @@
       <c r="E10" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F10" s="30" t="n">
         <v>2686</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -3223,7 +3195,7 @@
       <c r="H10" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="0" t="s">
@@ -3246,7 +3218,7 @@
       <c r="E11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="30" t="n">
         <v>2852</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -3255,7 +3227,7 @@
       <c r="H11" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J11" s="0" t="s">
@@ -3278,7 +3250,7 @@
       <c r="E12" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F12" s="31" t="n">
+      <c r="F12" s="30" t="n">
         <v>3854</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -3287,7 +3259,7 @@
       <c r="H12" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -3310,7 +3282,7 @@
       <c r="E13" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F13" s="31" t="n">
+      <c r="F13" s="30" t="n">
         <v>5381</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -3319,7 +3291,7 @@
       <c r="H13" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
@@ -3342,7 +3314,7 @@
       <c r="E14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="30" t="n">
         <v>7139</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -3351,7 +3323,7 @@
       <c r="H14" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
@@ -3374,7 +3346,7 @@
       <c r="E15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="30" t="n">
         <v>8854</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -3383,7 +3355,7 @@
       <c r="H15" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="0" t="s">
@@ -3406,7 +3378,7 @@
       <c r="E16" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="30" t="n">
         <v>12168</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -3415,7 +3387,7 @@
       <c r="H16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="0" t="s">
@@ -3438,7 +3410,7 @@
       <c r="E17" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F17" s="31" t="n">
+      <c r="F17" s="30" t="n">
         <v>16810</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -3447,7 +3419,7 @@
       <c r="H17" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J17" s="0" t="s">
@@ -3470,7 +3442,7 @@
       <c r="E18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="28" t="n">
         <v>1265</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -3479,7 +3451,7 @@
       <c r="H18" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J18" s="0" t="s">
@@ -3502,7 +3474,7 @@
       <c r="E19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="30" t="n">
         <v>1055</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -3511,7 +3483,7 @@
       <c r="H19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="0" t="s">
@@ -3534,7 +3506,7 @@
       <c r="E20" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F20" s="31" t="n">
+      <c r="F20" s="30" t="n">
         <v>1250</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -3543,7 +3515,7 @@
       <c r="H20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="0" t="s">
@@ -3566,7 +3538,7 @@
       <c r="E21" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F21" s="31" t="n">
+      <c r="F21" s="30" t="n">
         <v>1352</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -3575,7 +3547,7 @@
       <c r="H21" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J21" s="0" t="s">
@@ -3598,7 +3570,7 @@
       <c r="E22" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F22" s="31" t="n">
+      <c r="F22" s="30" t="n">
         <v>1451</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -3607,7 +3579,7 @@
       <c r="H22" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="0" t="s">
@@ -3630,7 +3602,7 @@
       <c r="E23" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F23" s="31" t="n">
+      <c r="F23" s="30" t="n">
         <v>1556</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -3639,7 +3611,7 @@
       <c r="H23" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J23" s="0" t="s">
@@ -3662,7 +3634,7 @@
       <c r="E24" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F24" s="31" t="n">
+      <c r="F24" s="30" t="n">
         <v>1666</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -3671,7 +3643,7 @@
       <c r="H24" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J24" s="0" t="s">
@@ -3694,7 +3666,7 @@
       <c r="E25" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F25" s="31" t="n">
+      <c r="F25" s="30" t="n">
         <v>1771</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -3703,7 +3675,7 @@
       <c r="H25" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J25" s="0" t="s">
@@ -3726,7 +3698,7 @@
       <c r="E26" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F26" s="31" t="n">
+      <c r="F26" s="30" t="n">
         <v>2015</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3735,7 +3707,7 @@
       <c r="H26" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J26" s="0" t="s">
@@ -3758,7 +3730,7 @@
       <c r="E27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F27" s="31" t="n">
+      <c r="F27" s="30" t="n">
         <v>2139</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -3767,7 +3739,7 @@
       <c r="H27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J27" s="0" t="s">
@@ -3790,7 +3762,7 @@
       <c r="E28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F28" s="31" t="n">
+      <c r="F28" s="30" t="n">
         <v>2891</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -3799,7 +3771,7 @@
       <c r="H28" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -3822,7 +3794,7 @@
       <c r="E29" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F29" s="31" t="n">
+      <c r="F29" s="30" t="n">
         <v>4036</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -3831,7 +3803,7 @@
       <c r="H29" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -3854,7 +3826,7 @@
       <c r="E30" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F30" s="31" t="n">
+      <c r="F30" s="30" t="n">
         <v>5354</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -3863,7 +3835,7 @@
       <c r="H30" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -3886,7 +3858,7 @@
       <c r="E31" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F31" s="31" t="n">
+      <c r="F31" s="30" t="n">
         <v>6641</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -3895,7 +3867,7 @@
       <c r="H31" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -3918,7 +3890,7 @@
       <c r="E32" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F32" s="31" t="n">
+      <c r="F32" s="30" t="n">
         <v>9126</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -3927,7 +3899,7 @@
       <c r="H32" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -3950,7 +3922,7 @@
       <c r="E33" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F33" s="31" t="n">
+      <c r="F33" s="30" t="n">
         <v>12608</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -3959,7 +3931,7 @@
       <c r="H33" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -3982,7 +3954,7 @@
       <c r="E34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="32" t="n">
+      <c r="F34" s="31" t="n">
         <v>1096</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -3991,7 +3963,7 @@
       <c r="H34" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -4014,7 +3986,7 @@
       <c r="E35" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F35" s="33" t="n">
+      <c r="F35" s="32" t="n">
         <v>914</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -4023,7 +3995,7 @@
       <c r="H35" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -4046,7 +4018,7 @@
       <c r="E36" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F36" s="34" t="n">
+      <c r="F36" s="33" t="n">
         <v>1084</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -4055,7 +4027,7 @@
       <c r="H36" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -4078,7 +4050,7 @@
       <c r="E37" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F37" s="34" t="n">
+      <c r="F37" s="33" t="n">
         <v>1172</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -4087,7 +4059,7 @@
       <c r="H37" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="I37" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J37" s="0" t="s">
@@ -4110,7 +4082,7 @@
       <c r="E38" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F38" s="34" t="n">
+      <c r="F38" s="33" t="n">
         <v>1257</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -4119,7 +4091,7 @@
       <c r="H38" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J38" s="0" t="s">
@@ -4142,7 +4114,7 @@
       <c r="E39" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F39" s="34" t="n">
+      <c r="F39" s="33" t="n">
         <v>1349</v>
       </c>
       <c r="G39" s="12" t="s">
@@ -4151,7 +4123,7 @@
       <c r="H39" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J39" s="0" t="s">
@@ -4174,7 +4146,7 @@
       <c r="E40" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F40" s="34" t="n">
+      <c r="F40" s="33" t="n">
         <v>1444</v>
       </c>
       <c r="G40" s="12" t="s">
@@ -4183,7 +4155,7 @@
       <c r="H40" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J40" s="0" t="s">
@@ -4206,7 +4178,7 @@
       <c r="E41" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F41" s="34" t="n">
+      <c r="F41" s="33" t="n">
         <v>1535</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -4215,7 +4187,7 @@
       <c r="H41" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J41" s="0" t="s">
@@ -4238,7 +4210,7 @@
       <c r="E42" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F42" s="34" t="n">
+      <c r="F42" s="33" t="n">
         <v>1746</v>
       </c>
       <c r="G42" s="12" t="s">
@@ -4247,7 +4219,7 @@
       <c r="H42" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J42" s="0" t="s">
@@ -4270,7 +4242,7 @@
       <c r="E43" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F43" s="34" t="n">
+      <c r="F43" s="33" t="n">
         <v>1854</v>
       </c>
       <c r="G43" s="12" t="s">
@@ -4279,7 +4251,7 @@
       <c r="H43" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J43" s="0" t="s">
@@ -4302,7 +4274,7 @@
       <c r="E44" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F44" s="34" t="n">
+      <c r="F44" s="33" t="n">
         <v>2505</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -4311,7 +4283,7 @@
       <c r="H44" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J44" s="0" t="s">
@@ -4334,7 +4306,7 @@
       <c r="E45" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F45" s="34" t="n">
+      <c r="F45" s="33" t="n">
         <v>3498</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -4343,7 +4315,7 @@
       <c r="H45" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J45" s="0" t="s">
@@ -4366,7 +4338,7 @@
       <c r="E46" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F46" s="34" t="n">
+      <c r="F46" s="33" t="n">
         <v>4640</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -4375,7 +4347,7 @@
       <c r="H46" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J46" s="0" t="s">
@@ -4398,7 +4370,7 @@
       <c r="E47" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F47" s="34" t="n">
+      <c r="F47" s="33" t="n">
         <v>5755</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -4407,7 +4379,7 @@
       <c r="H47" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J47" s="0" t="s">
@@ -4430,7 +4402,7 @@
       <c r="E48" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F48" s="34" t="n">
+      <c r="F48" s="33" t="n">
         <v>7909</v>
       </c>
       <c r="G48" s="12" t="s">
@@ -4439,7 +4411,7 @@
       <c r="H48" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J48" s="0" t="s">
@@ -4462,7 +4434,7 @@
       <c r="E49" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F49" s="34" t="n">
+      <c r="F49" s="33" t="n">
         <v>10927</v>
       </c>
       <c r="G49" s="12" t="s">
@@ -4471,7 +4443,7 @@
       <c r="H49" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J49" s="0" t="s">
@@ -4494,7 +4466,7 @@
       <c r="E50" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F50" s="32" t="n">
+      <c r="F50" s="31" t="n">
         <v>1265</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -4503,7 +4475,7 @@
       <c r="H50" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J50" s="0" t="s">
@@ -4526,7 +4498,7 @@
       <c r="E51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F51" s="34" t="n">
+      <c r="F51" s="33" t="n">
         <v>1055</v>
       </c>
       <c r="G51" s="12" t="s">
@@ -4535,7 +4507,7 @@
       <c r="H51" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J51" s="0" t="s">
@@ -4558,7 +4530,7 @@
       <c r="E52" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F52" s="34" t="n">
+      <c r="F52" s="33" t="n">
         <v>1250</v>
       </c>
       <c r="G52" s="12" t="s">
@@ -4567,7 +4539,7 @@
       <c r="H52" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J52" s="0" t="s">
@@ -4590,7 +4562,7 @@
       <c r="E53" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F53" s="34" t="n">
+      <c r="F53" s="33" t="n">
         <v>1352</v>
       </c>
       <c r="G53" s="12" t="s">
@@ -4599,7 +4571,7 @@
       <c r="H53" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J53" s="0" t="s">
@@ -4622,7 +4594,7 @@
       <c r="E54" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F54" s="34" t="n">
+      <c r="F54" s="33" t="n">
         <v>1451</v>
       </c>
       <c r="G54" s="12" t="s">
@@ -4631,7 +4603,7 @@
       <c r="H54" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J54" s="0" t="s">
@@ -4654,7 +4626,7 @@
       <c r="E55" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F55" s="34" t="n">
+      <c r="F55" s="33" t="n">
         <v>1556</v>
       </c>
       <c r="G55" s="12" t="s">
@@ -4663,7 +4635,7 @@
       <c r="H55" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I55" s="30" t="s">
+      <c r="I55" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J55" s="0" t="s">
@@ -4686,7 +4658,7 @@
       <c r="E56" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F56" s="34" t="n">
+      <c r="F56" s="33" t="n">
         <v>1666</v>
       </c>
       <c r="G56" s="12" t="s">
@@ -4695,7 +4667,7 @@
       <c r="H56" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J56" s="0" t="s">
@@ -4718,7 +4690,7 @@
       <c r="E57" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F57" s="34" t="n">
+      <c r="F57" s="33" t="n">
         <v>1771</v>
       </c>
       <c r="G57" s="12" t="s">
@@ -4727,7 +4699,7 @@
       <c r="H57" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J57" s="0" t="s">
@@ -4750,7 +4722,7 @@
       <c r="E58" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F58" s="34" t="n">
+      <c r="F58" s="33" t="n">
         <v>2015</v>
       </c>
       <c r="G58" s="12" t="s">
@@ -4759,7 +4731,7 @@
       <c r="H58" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I58" s="30" t="s">
+      <c r="I58" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J58" s="0" t="s">
@@ -4782,7 +4754,7 @@
       <c r="E59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F59" s="34" t="n">
+      <c r="F59" s="33" t="n">
         <v>2139</v>
       </c>
       <c r="G59" s="12" t="s">
@@ -4791,7 +4763,7 @@
       <c r="H59" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="30" t="s">
+      <c r="I59" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J59" s="0" t="s">
@@ -4814,7 +4786,7 @@
       <c r="E60" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F60" s="34" t="n">
+      <c r="F60" s="33" t="n">
         <v>2891</v>
       </c>
       <c r="G60" s="12" t="s">
@@ -4823,7 +4795,7 @@
       <c r="H60" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="I60" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J60" s="0" t="s">
@@ -4846,7 +4818,7 @@
       <c r="E61" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F61" s="34" t="n">
+      <c r="F61" s="33" t="n">
         <v>4036</v>
       </c>
       <c r="G61" s="12" t="s">
@@ -4855,7 +4827,7 @@
       <c r="H61" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J61" s="0" t="s">
@@ -4878,7 +4850,7 @@
       <c r="E62" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F62" s="34" t="n">
+      <c r="F62" s="33" t="n">
         <v>5354</v>
       </c>
       <c r="G62" s="12" t="s">
@@ -4887,7 +4859,7 @@
       <c r="H62" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I62" s="30" t="s">
+      <c r="I62" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J62" s="0" t="s">
@@ -4910,7 +4882,7 @@
       <c r="E63" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F63" s="34" t="n">
+      <c r="F63" s="33" t="n">
         <v>6641</v>
       </c>
       <c r="G63" s="12" t="s">
@@ -4919,7 +4891,7 @@
       <c r="H63" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="I63" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="0" t="s">
@@ -4942,7 +4914,7 @@
       <c r="E64" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F64" s="34" t="n">
+      <c r="F64" s="33" t="n">
         <v>9126</v>
       </c>
       <c r="G64" s="12" t="s">
@@ -4951,7 +4923,7 @@
       <c r="H64" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J64" s="0" t="s">
@@ -4974,7 +4946,7 @@
       <c r="E65" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F65" s="34" t="n">
+      <c r="F65" s="33" t="n">
         <v>12608</v>
       </c>
       <c r="G65" s="12" t="s">
@@ -4983,7 +4955,7 @@
       <c r="H65" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J65" s="0" t="s">
@@ -5006,7 +4978,7 @@
       <c r="E66" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F66" s="35" t="n">
+      <c r="F66" s="34" t="n">
         <v>948</v>
       </c>
       <c r="G66" s="12" t="s">
@@ -5015,7 +4987,7 @@
       <c r="H66" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J66" s="0" t="s">
@@ -5038,7 +5010,7 @@
       <c r="E67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F67" s="33" t="n">
+      <c r="F67" s="32" t="n">
         <v>791</v>
       </c>
       <c r="G67" s="12" t="s">
@@ -5047,7 +5019,7 @@
       <c r="H67" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I67" s="30" t="s">
+      <c r="I67" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J67" s="0" t="s">
@@ -5070,7 +5042,7 @@
       <c r="E68" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F68" s="33" t="n">
+      <c r="F68" s="32" t="n">
         <v>938</v>
       </c>
       <c r="G68" s="12" t="s">
@@ -5079,7 +5051,7 @@
       <c r="H68" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I68" s="30" t="s">
+      <c r="I68" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J68" s="0" t="s">
@@ -5102,7 +5074,7 @@
       <c r="E69" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F69" s="34" t="n">
+      <c r="F69" s="33" t="n">
         <v>1014</v>
       </c>
       <c r="G69" s="12" t="s">
@@ -5111,7 +5083,7 @@
       <c r="H69" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J69" s="0" t="s">
@@ -5134,7 +5106,7 @@
       <c r="E70" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F70" s="34" t="n">
+      <c r="F70" s="33" t="n">
         <v>1088</v>
       </c>
       <c r="G70" s="12" t="s">
@@ -5143,7 +5115,7 @@
       <c r="H70" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J70" s="0" t="s">
@@ -5166,7 +5138,7 @@
       <c r="E71" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F71" s="34" t="n">
+      <c r="F71" s="33" t="n">
         <v>1167</v>
       </c>
       <c r="G71" s="12" t="s">
@@ -5175,7 +5147,7 @@
       <c r="H71" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I71" s="30" t="s">
+      <c r="I71" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J71" s="0" t="s">
@@ -5198,7 +5170,7 @@
       <c r="E72" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F72" s="34" t="n">
+      <c r="F72" s="33" t="n">
         <v>1249</v>
       </c>
       <c r="G72" s="12" t="s">
@@ -5207,7 +5179,7 @@
       <c r="H72" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I72" s="30" t="s">
+      <c r="I72" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J72" s="0" t="s">
@@ -5230,7 +5202,7 @@
       <c r="E73" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F73" s="34" t="n">
+      <c r="F73" s="33" t="n">
         <v>1328</v>
       </c>
       <c r="G73" s="12" t="s">
@@ -5239,7 +5211,7 @@
       <c r="H73" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J73" s="0" t="s">
@@ -5262,7 +5234,7 @@
       <c r="E74" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F74" s="34" t="n">
+      <c r="F74" s="33" t="n">
         <v>1511</v>
       </c>
       <c r="G74" s="12" t="s">
@@ -5271,7 +5243,7 @@
       <c r="H74" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I74" s="30" t="s">
+      <c r="I74" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J74" s="0" t="s">
@@ -5294,7 +5266,7 @@
       <c r="E75" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F75" s="34" t="n">
+      <c r="F75" s="33" t="n">
         <v>1604</v>
       </c>
       <c r="G75" s="12" t="s">
@@ -5303,7 +5275,7 @@
       <c r="H75" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I75" s="30" t="s">
+      <c r="I75" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J75" s="0" t="s">
@@ -5326,7 +5298,7 @@
       <c r="E76" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F76" s="34" t="n">
+      <c r="F76" s="33" t="n">
         <v>2168</v>
       </c>
       <c r="G76" s="12" t="s">
@@ -5335,7 +5307,7 @@
       <c r="H76" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="30" t="s">
+      <c r="I76" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J76" s="0" t="s">
@@ -5358,7 +5330,7 @@
       <c r="E77" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F77" s="34" t="n">
+      <c r="F77" s="33" t="n">
         <v>3027</v>
       </c>
       <c r="G77" s="12" t="s">
@@ -5367,7 +5339,7 @@
       <c r="H77" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="30" t="s">
+      <c r="I77" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J77" s="0" t="s">
@@ -5390,7 +5362,7 @@
       <c r="E78" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F78" s="34" t="n">
+      <c r="F78" s="33" t="n">
         <v>4016</v>
       </c>
       <c r="G78" s="12" t="s">
@@ -5399,7 +5371,7 @@
       <c r="H78" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J78" s="0" t="s">
@@ -5422,7 +5394,7 @@
       <c r="E79" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F79" s="34" t="n">
+      <c r="F79" s="33" t="n">
         <v>4980</v>
       </c>
       <c r="G79" s="12" t="s">
@@ -5431,7 +5403,7 @@
       <c r="H79" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="30" t="s">
+      <c r="I79" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J79" s="0" t="s">
@@ -5454,7 +5426,7 @@
       <c r="E80" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F80" s="34" t="n">
+      <c r="F80" s="33" t="n">
         <v>6845</v>
       </c>
       <c r="G80" s="12" t="s">
@@ -5463,7 +5435,7 @@
       <c r="H80" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="30" t="s">
+      <c r="I80" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J80" s="0" t="s">
@@ -5486,7 +5458,7 @@
       <c r="E81" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F81" s="34" t="n">
+      <c r="F81" s="33" t="n">
         <v>9456</v>
       </c>
       <c r="G81" s="12" t="s">
@@ -5495,7 +5467,7 @@
       <c r="H81" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J81" s="0" t="s">
@@ -5518,7 +5490,7 @@
       <c r="E82" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F82" s="31" t="n">
+      <c r="F82" s="30" t="n">
         <v>822</v>
       </c>
       <c r="G82" s="12" t="s">
@@ -5527,7 +5499,7 @@
       <c r="H82" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I82" s="30" t="s">
+      <c r="I82" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J82" s="0" t="s">
@@ -5550,7 +5522,7 @@
       <c r="E83" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F83" s="31" t="n">
+      <c r="F83" s="30" t="n">
         <v>685</v>
       </c>
       <c r="G83" s="12" t="s">
@@ -5559,7 +5531,7 @@
       <c r="H83" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J83" s="0" t="s">
@@ -5582,7 +5554,7 @@
       <c r="E84" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F84" s="31" t="n">
+      <c r="F84" s="30" t="n">
         <v>813</v>
       </c>
       <c r="G84" s="12" t="s">
@@ -5591,7 +5563,7 @@
       <c r="H84" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J84" s="0" t="s">
@@ -5614,7 +5586,7 @@
       <c r="E85" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F85" s="31" t="n">
+      <c r="F85" s="30" t="n">
         <v>879</v>
       </c>
       <c r="G85" s="12" t="s">
@@ -5623,7 +5595,7 @@
       <c r="H85" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I85" s="30" t="s">
+      <c r="I85" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J85" s="0" t="s">
@@ -5646,7 +5618,7 @@
       <c r="E86" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F86" s="31" t="n">
+      <c r="F86" s="30" t="n">
         <v>943</v>
       </c>
       <c r="G86" s="12" t="s">
@@ -5655,7 +5627,7 @@
       <c r="H86" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I86" s="30" t="s">
+      <c r="I86" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J86" s="0" t="s">
@@ -5678,7 +5650,7 @@
       <c r="E87" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F87" s="31" t="n">
+      <c r="F87" s="30" t="n">
         <v>1012</v>
       </c>
       <c r="G87" s="12" t="s">
@@ -5687,7 +5659,7 @@
       <c r="H87" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I87" s="30" t="s">
+      <c r="I87" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J87" s="0" t="s">
@@ -5710,7 +5682,7 @@
       <c r="E88" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F88" s="31" t="n">
+      <c r="F88" s="30" t="n">
         <v>1083</v>
       </c>
       <c r="G88" s="12" t="s">
@@ -5719,7 +5691,7 @@
       <c r="H88" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="30" t="s">
+      <c r="I88" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J88" s="0" t="s">
@@ -5742,7 +5714,7 @@
       <c r="E89" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F89" s="31" t="n">
+      <c r="F89" s="30" t="n">
         <v>1151</v>
       </c>
       <c r="G89" s="12" t="s">
@@ -5751,7 +5723,7 @@
       <c r="H89" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I89" s="30" t="s">
+      <c r="I89" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J89" s="0" t="s">
@@ -5774,7 +5746,7 @@
       <c r="E90" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F90" s="31" t="n">
+      <c r="F90" s="30" t="n">
         <v>1309</v>
       </c>
       <c r="G90" s="12" t="s">
@@ -5783,7 +5755,7 @@
       <c r="H90" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="30" t="s">
+      <c r="I90" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J90" s="0" t="s">
@@ -5806,7 +5778,7 @@
       <c r="E91" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F91" s="31" t="n">
+      <c r="F91" s="30" t="n">
         <v>1390</v>
       </c>
       <c r="G91" s="12" t="s">
@@ -5815,7 +5787,7 @@
       <c r="H91" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I91" s="30" t="s">
+      <c r="I91" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J91" s="0" t="s">
@@ -5838,7 +5810,7 @@
       <c r="E92" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F92" s="31" t="n">
+      <c r="F92" s="30" t="n">
         <v>1879</v>
       </c>
       <c r="G92" s="12" t="s">
@@ -5847,7 +5819,7 @@
       <c r="H92" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I92" s="30" t="s">
+      <c r="I92" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J92" s="0" t="s">
@@ -5870,7 +5842,7 @@
       <c r="E93" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F93" s="31" t="n">
+      <c r="F93" s="30" t="n">
         <v>2623</v>
       </c>
       <c r="G93" s="12" t="s">
@@ -5879,7 +5851,7 @@
       <c r="H93" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I93" s="30" t="s">
+      <c r="I93" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J93" s="0" t="s">
@@ -5902,7 +5874,7 @@
       <c r="E94" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F94" s="31" t="n">
+      <c r="F94" s="30" t="n">
         <v>3480</v>
       </c>
       <c r="G94" s="12" t="s">
@@ -5911,7 +5883,7 @@
       <c r="H94" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I94" s="30" t="s">
+      <c r="I94" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J94" s="0" t="s">
@@ -5934,7 +5906,7 @@
       <c r="E95" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F95" s="31" t="n">
+      <c r="F95" s="30" t="n">
         <v>4316</v>
       </c>
       <c r="G95" s="12" t="s">
@@ -5943,7 +5915,7 @@
       <c r="H95" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I95" s="30" t="s">
+      <c r="I95" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J95" s="0" t="s">
@@ -5966,7 +5938,7 @@
       <c r="E96" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F96" s="31" t="n">
+      <c r="F96" s="30" t="n">
         <v>5932</v>
       </c>
       <c r="G96" s="12" t="s">
@@ -5975,7 +5947,7 @@
       <c r="H96" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I96" s="30" t="s">
+      <c r="I96" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J96" s="0" t="s">
@@ -5998,7 +5970,7 @@
       <c r="E97" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F97" s="31" t="n">
+      <c r="F97" s="30" t="n">
         <v>8195</v>
       </c>
       <c r="G97" s="12" t="s">
@@ -6007,7 +5979,7 @@
       <c r="H97" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I97" s="30" t="s">
+      <c r="I97" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J97" s="0" t="s">
@@ -6021,7 +5993,7 @@
       <c r="B98" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="0" t="n">
@@ -6030,7 +6002,7 @@
       <c r="E98" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F98" s="32" t="n">
+      <c r="F98" s="31" t="n">
         <v>1265</v>
       </c>
       <c r="G98" s="12" t="s">
@@ -6039,7 +6011,7 @@
       <c r="H98" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I98" s="30" t="s">
+      <c r="I98" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J98" s="0" t="s">
@@ -6053,7 +6025,7 @@
       <c r="B99" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D99" s="0" t="n">
@@ -6062,7 +6034,7 @@
       <c r="E99" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F99" s="34" t="n">
+      <c r="F99" s="33" t="n">
         <v>1055</v>
       </c>
       <c r="G99" s="12" t="s">
@@ -6071,7 +6043,7 @@
       <c r="H99" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I99" s="30" t="s">
+      <c r="I99" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J99" s="0" t="s">
@@ -6085,7 +6057,7 @@
       <c r="B100" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D100" s="0" t="n">
@@ -6094,7 +6066,7 @@
       <c r="E100" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F100" s="34" t="n">
+      <c r="F100" s="33" t="n">
         <v>1250</v>
       </c>
       <c r="G100" s="12" t="s">
@@ -6103,7 +6075,7 @@
       <c r="H100" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I100" s="30" t="s">
+      <c r="I100" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J100" s="0" t="s">
@@ -6117,7 +6089,7 @@
       <c r="B101" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D101" s="0" t="n">
@@ -6126,7 +6098,7 @@
       <c r="E101" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F101" s="34" t="n">
+      <c r="F101" s="33" t="n">
         <v>1352</v>
       </c>
       <c r="G101" s="12" t="s">
@@ -6135,7 +6107,7 @@
       <c r="H101" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I101" s="30" t="s">
+      <c r="I101" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J101" s="0" t="s">
@@ -6149,7 +6121,7 @@
       <c r="B102" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D102" s="0" t="n">
@@ -6158,7 +6130,7 @@
       <c r="E102" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F102" s="34" t="n">
+      <c r="F102" s="33" t="n">
         <v>1451</v>
       </c>
       <c r="G102" s="12" t="s">
@@ -6167,7 +6139,7 @@
       <c r="H102" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I102" s="30" t="s">
+      <c r="I102" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J102" s="0" t="s">
@@ -6181,7 +6153,7 @@
       <c r="B103" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D103" s="0" t="n">
@@ -6190,7 +6162,7 @@
       <c r="E103" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F103" s="34" t="n">
+      <c r="F103" s="33" t="n">
         <v>1556</v>
       </c>
       <c r="G103" s="12" t="s">
@@ -6199,7 +6171,7 @@
       <c r="H103" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I103" s="30" t="s">
+      <c r="I103" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J103" s="0" t="s">
@@ -6213,7 +6185,7 @@
       <c r="B104" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C104" s="36" t="s">
+      <c r="C104" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D104" s="0" t="n">
@@ -6222,7 +6194,7 @@
       <c r="E104" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F104" s="34" t="n">
+      <c r="F104" s="33" t="n">
         <v>1666</v>
       </c>
       <c r="G104" s="12" t="s">
@@ -6231,7 +6203,7 @@
       <c r="H104" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="30" t="s">
+      <c r="I104" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J104" s="0" t="s">
@@ -6245,7 +6217,7 @@
       <c r="B105" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D105" s="0" t="n">
@@ -6254,7 +6226,7 @@
       <c r="E105" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F105" s="34" t="n">
+      <c r="F105" s="33" t="n">
         <v>1771</v>
       </c>
       <c r="G105" s="12" t="s">
@@ -6263,7 +6235,7 @@
       <c r="H105" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I105" s="30" t="s">
+      <c r="I105" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J105" s="0" t="s">
@@ -6277,7 +6249,7 @@
       <c r="B106" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D106" s="0" t="n">
@@ -6286,7 +6258,7 @@
       <c r="E106" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F106" s="34" t="n">
+      <c r="F106" s="33" t="n">
         <v>2015</v>
       </c>
       <c r="G106" s="12" t="s">
@@ -6295,7 +6267,7 @@
       <c r="H106" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I106" s="30" t="s">
+      <c r="I106" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J106" s="0" t="s">
@@ -6309,7 +6281,7 @@
       <c r="B107" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D107" s="0" t="n">
@@ -6318,7 +6290,7 @@
       <c r="E107" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F107" s="34" t="n">
+      <c r="F107" s="33" t="n">
         <v>2139</v>
       </c>
       <c r="G107" s="12" t="s">
@@ -6327,7 +6299,7 @@
       <c r="H107" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I107" s="30" t="s">
+      <c r="I107" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J107" s="0" t="s">
@@ -6341,7 +6313,7 @@
       <c r="B108" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D108" s="0" t="n">
@@ -6350,7 +6322,7 @@
       <c r="E108" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F108" s="34" t="n">
+      <c r="F108" s="33" t="n">
         <v>2891</v>
       </c>
       <c r="G108" s="12" t="s">
@@ -6359,7 +6331,7 @@
       <c r="H108" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I108" s="30" t="s">
+      <c r="I108" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J108" s="0" t="s">
@@ -6373,7 +6345,7 @@
       <c r="B109" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D109" s="0" t="n">
@@ -6382,7 +6354,7 @@
       <c r="E109" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F109" s="34" t="n">
+      <c r="F109" s="33" t="n">
         <v>4036</v>
       </c>
       <c r="G109" s="12" t="s">
@@ -6391,7 +6363,7 @@
       <c r="H109" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I109" s="30" t="s">
+      <c r="I109" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J109" s="0" t="s">
@@ -6405,7 +6377,7 @@
       <c r="B110" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D110" s="0" t="n">
@@ -6414,7 +6386,7 @@
       <c r="E110" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F110" s="34" t="n">
+      <c r="F110" s="33" t="n">
         <v>5354</v>
       </c>
       <c r="G110" s="12" t="s">
@@ -6423,7 +6395,7 @@
       <c r="H110" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I110" s="30" t="s">
+      <c r="I110" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J110" s="0" t="s">
@@ -6437,7 +6409,7 @@
       <c r="B111" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D111" s="0" t="n">
@@ -6446,7 +6418,7 @@
       <c r="E111" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F111" s="34" t="n">
+      <c r="F111" s="33" t="n">
         <v>6641</v>
       </c>
       <c r="G111" s="12" t="s">
@@ -6455,7 +6427,7 @@
       <c r="H111" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I111" s="30" t="s">
+      <c r="I111" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J111" s="0" t="s">
@@ -6469,7 +6441,7 @@
       <c r="B112" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D112" s="0" t="n">
@@ -6478,7 +6450,7 @@
       <c r="E112" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F112" s="34" t="n">
+      <c r="F112" s="33" t="n">
         <v>9126</v>
       </c>
       <c r="G112" s="12" t="s">
@@ -6487,7 +6459,7 @@
       <c r="H112" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I112" s="30" t="s">
+      <c r="I112" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J112" s="0" t="s">
@@ -6501,7 +6473,7 @@
       <c r="B113" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="0" t="n">
@@ -6510,7 +6482,7 @@
       <c r="E113" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F113" s="34" t="n">
+      <c r="F113" s="33" t="n">
         <v>12608</v>
       </c>
       <c r="G113" s="12" t="s">
@@ -6519,7 +6491,7 @@
       <c r="H113" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I113" s="30" t="s">
+      <c r="I113" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J113" s="0" t="s">
@@ -6533,7 +6505,7 @@
       <c r="B114" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D114" s="0" t="n">
@@ -6542,7 +6514,7 @@
       <c r="E114" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F114" s="35" t="n">
+      <c r="F114" s="34" t="n">
         <v>948</v>
       </c>
       <c r="G114" s="12" t="s">
@@ -6551,7 +6523,7 @@
       <c r="H114" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I114" s="30" t="s">
+      <c r="I114" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J114" s="0" t="s">
@@ -6565,7 +6537,7 @@
       <c r="B115" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="0" t="n">
@@ -6574,7 +6546,7 @@
       <c r="E115" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F115" s="33" t="n">
+      <c r="F115" s="32" t="n">
         <v>791</v>
       </c>
       <c r="G115" s="12" t="s">
@@ -6583,7 +6555,7 @@
       <c r="H115" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I115" s="30" t="s">
+      <c r="I115" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J115" s="0" t="s">
@@ -6597,7 +6569,7 @@
       <c r="B116" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D116" s="0" t="n">
@@ -6606,7 +6578,7 @@
       <c r="E116" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F116" s="33" t="n">
+      <c r="F116" s="32" t="n">
         <v>938</v>
       </c>
       <c r="G116" s="12" t="s">
@@ -6615,7 +6587,7 @@
       <c r="H116" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I116" s="30" t="s">
+      <c r="I116" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J116" s="0" t="s">
@@ -6629,7 +6601,7 @@
       <c r="B117" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C117" s="36" t="s">
+      <c r="C117" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D117" s="0" t="n">
@@ -6638,7 +6610,7 @@
       <c r="E117" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F117" s="34" t="n">
+      <c r="F117" s="33" t="n">
         <v>1014</v>
       </c>
       <c r="G117" s="12" t="s">
@@ -6647,7 +6619,7 @@
       <c r="H117" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I117" s="30" t="s">
+      <c r="I117" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J117" s="0" t="s">
@@ -6661,7 +6633,7 @@
       <c r="B118" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C118" s="36" t="s">
+      <c r="C118" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D118" s="0" t="n">
@@ -6670,7 +6642,7 @@
       <c r="E118" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F118" s="34" t="n">
+      <c r="F118" s="33" t="n">
         <v>1088</v>
       </c>
       <c r="G118" s="12" t="s">
@@ -6679,7 +6651,7 @@
       <c r="H118" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I118" s="30" t="s">
+      <c r="I118" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J118" s="0" t="s">
@@ -6693,7 +6665,7 @@
       <c r="B119" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="0" t="n">
@@ -6702,7 +6674,7 @@
       <c r="E119" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F119" s="34" t="n">
+      <c r="F119" s="33" t="n">
         <v>1167</v>
       </c>
       <c r="G119" s="12" t="s">
@@ -6711,7 +6683,7 @@
       <c r="H119" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I119" s="30" t="s">
+      <c r="I119" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J119" s="0" t="s">
@@ -6725,7 +6697,7 @@
       <c r="B120" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D120" s="0" t="n">
@@ -6734,7 +6706,7 @@
       <c r="E120" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F120" s="34" t="n">
+      <c r="F120" s="33" t="n">
         <v>1249</v>
       </c>
       <c r="G120" s="12" t="s">
@@ -6743,7 +6715,7 @@
       <c r="H120" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I120" s="30" t="s">
+      <c r="I120" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J120" s="0" t="s">
@@ -6757,7 +6729,7 @@
       <c r="B121" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D121" s="0" t="n">
@@ -6766,7 +6738,7 @@
       <c r="E121" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F121" s="34" t="n">
+      <c r="F121" s="33" t="n">
         <v>1328</v>
       </c>
       <c r="G121" s="12" t="s">
@@ -6775,7 +6747,7 @@
       <c r="H121" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I121" s="30" t="s">
+      <c r="I121" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J121" s="0" t="s">
@@ -6789,7 +6761,7 @@
       <c r="B122" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D122" s="0" t="n">
@@ -6798,7 +6770,7 @@
       <c r="E122" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F122" s="34" t="n">
+      <c r="F122" s="33" t="n">
         <v>1511</v>
       </c>
       <c r="G122" s="12" t="s">
@@ -6807,7 +6779,7 @@
       <c r="H122" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I122" s="30" t="s">
+      <c r="I122" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J122" s="0" t="s">
@@ -6821,7 +6793,7 @@
       <c r="B123" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D123" s="0" t="n">
@@ -6830,7 +6802,7 @@
       <c r="E123" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F123" s="34" t="n">
+      <c r="F123" s="33" t="n">
         <v>1604</v>
       </c>
       <c r="G123" s="12" t="s">
@@ -6839,7 +6811,7 @@
       <c r="H123" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I123" s="30" t="s">
+      <c r="I123" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J123" s="0" t="s">
@@ -6853,7 +6825,7 @@
       <c r="B124" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D124" s="0" t="n">
@@ -6862,7 +6834,7 @@
       <c r="E124" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F124" s="34" t="n">
+      <c r="F124" s="33" t="n">
         <v>2168</v>
       </c>
       <c r="G124" s="12" t="s">
@@ -6871,7 +6843,7 @@
       <c r="H124" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I124" s="30" t="s">
+      <c r="I124" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J124" s="0" t="s">
@@ -6885,7 +6857,7 @@
       <c r="B125" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D125" s="0" t="n">
@@ -6894,7 +6866,7 @@
       <c r="E125" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F125" s="34" t="n">
+      <c r="F125" s="33" t="n">
         <v>3027</v>
       </c>
       <c r="G125" s="12" t="s">
@@ -6903,7 +6875,7 @@
       <c r="H125" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I125" s="30" t="s">
+      <c r="I125" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J125" s="0" t="s">
@@ -6917,7 +6889,7 @@
       <c r="B126" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D126" s="0" t="n">
@@ -6926,7 +6898,7 @@
       <c r="E126" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F126" s="34" t="n">
+      <c r="F126" s="33" t="n">
         <v>4016</v>
       </c>
       <c r="G126" s="12" t="s">
@@ -6935,7 +6907,7 @@
       <c r="H126" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I126" s="30" t="s">
+      <c r="I126" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J126" s="0" t="s">
@@ -6949,7 +6921,7 @@
       <c r="B127" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D127" s="0" t="n">
@@ -6958,7 +6930,7 @@
       <c r="E127" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F127" s="34" t="n">
+      <c r="F127" s="33" t="n">
         <v>4980</v>
       </c>
       <c r="G127" s="12" t="s">
@@ -6967,7 +6939,7 @@
       <c r="H127" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I127" s="30" t="s">
+      <c r="I127" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J127" s="0" t="s">
@@ -6981,7 +6953,7 @@
       <c r="B128" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D128" s="0" t="n">
@@ -6990,7 +6962,7 @@
       <c r="E128" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F128" s="34" t="n">
+      <c r="F128" s="33" t="n">
         <v>6845</v>
       </c>
       <c r="G128" s="12" t="s">
@@ -6999,7 +6971,7 @@
       <c r="H128" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I128" s="30" t="s">
+      <c r="I128" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J128" s="0" t="s">
@@ -7013,7 +6985,7 @@
       <c r="B129" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D129" s="0" t="n">
@@ -7022,7 +6994,7 @@
       <c r="E129" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F129" s="34" t="n">
+      <c r="F129" s="33" t="n">
         <v>9456</v>
       </c>
       <c r="G129" s="12" t="s">
@@ -7031,7 +7003,7 @@
       <c r="H129" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I129" s="30" t="s">
+      <c r="I129" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J129" s="0" t="s">
@@ -7045,7 +7017,7 @@
       <c r="B130" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="36" t="s">
+      <c r="C130" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D130" s="0" t="n">
@@ -7054,7 +7026,7 @@
       <c r="E130" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F130" s="31" t="n">
+      <c r="F130" s="30" t="n">
         <v>822</v>
       </c>
       <c r="G130" s="12" t="s">
@@ -7063,7 +7035,7 @@
       <c r="H130" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I130" s="30" t="s">
+      <c r="I130" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J130" s="0" t="s">
@@ -7077,7 +7049,7 @@
       <c r="B131" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D131" s="0" t="n">
@@ -7086,7 +7058,7 @@
       <c r="E131" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F131" s="31" t="n">
+      <c r="F131" s="30" t="n">
         <v>685</v>
       </c>
       <c r="G131" s="12" t="s">
@@ -7095,7 +7067,7 @@
       <c r="H131" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I131" s="30" t="s">
+      <c r="I131" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J131" s="0" t="s">
@@ -7109,7 +7081,7 @@
       <c r="B132" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D132" s="0" t="n">
@@ -7118,7 +7090,7 @@
       <c r="E132" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F132" s="31" t="n">
+      <c r="F132" s="30" t="n">
         <v>813</v>
       </c>
       <c r="G132" s="12" t="s">
@@ -7127,7 +7099,7 @@
       <c r="H132" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I132" s="30" t="s">
+      <c r="I132" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J132" s="0" t="s">
@@ -7141,7 +7113,7 @@
       <c r="B133" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D133" s="0" t="n">
@@ -7150,7 +7122,7 @@
       <c r="E133" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F133" s="31" t="n">
+      <c r="F133" s="30" t="n">
         <v>879</v>
       </c>
       <c r="G133" s="12" t="s">
@@ -7159,7 +7131,7 @@
       <c r="H133" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I133" s="30" t="s">
+      <c r="I133" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J133" s="0" t="s">
@@ -7173,7 +7145,7 @@
       <c r="B134" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D134" s="0" t="n">
@@ -7182,7 +7154,7 @@
       <c r="E134" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F134" s="31" t="n">
+      <c r="F134" s="30" t="n">
         <v>943</v>
       </c>
       <c r="G134" s="12" t="s">
@@ -7191,7 +7163,7 @@
       <c r="H134" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I134" s="30" t="s">
+      <c r="I134" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J134" s="0" t="s">
@@ -7205,7 +7177,7 @@
       <c r="B135" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D135" s="0" t="n">
@@ -7214,7 +7186,7 @@
       <c r="E135" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F135" s="31" t="n">
+      <c r="F135" s="30" t="n">
         <v>1012</v>
       </c>
       <c r="G135" s="12" t="s">
@@ -7223,7 +7195,7 @@
       <c r="H135" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I135" s="30" t="s">
+      <c r="I135" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J135" s="0" t="s">
@@ -7237,7 +7209,7 @@
       <c r="B136" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C136" s="36" t="s">
+      <c r="C136" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D136" s="0" t="n">
@@ -7246,7 +7218,7 @@
       <c r="E136" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F136" s="31" t="n">
+      <c r="F136" s="30" t="n">
         <v>1083</v>
       </c>
       <c r="G136" s="12" t="s">
@@ -7255,7 +7227,7 @@
       <c r="H136" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I136" s="30" t="s">
+      <c r="I136" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J136" s="0" t="s">
@@ -7269,7 +7241,7 @@
       <c r="B137" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D137" s="0" t="n">
@@ -7278,7 +7250,7 @@
       <c r="E137" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F137" s="31" t="n">
+      <c r="F137" s="30" t="n">
         <v>1151</v>
       </c>
       <c r="G137" s="12" t="s">
@@ -7287,7 +7259,7 @@
       <c r="H137" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I137" s="30" t="s">
+      <c r="I137" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J137" s="0" t="s">
@@ -7301,7 +7273,7 @@
       <c r="B138" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D138" s="0" t="n">
@@ -7310,7 +7282,7 @@
       <c r="E138" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F138" s="31" t="n">
+      <c r="F138" s="30" t="n">
         <v>1309</v>
       </c>
       <c r="G138" s="12" t="s">
@@ -7319,7 +7291,7 @@
       <c r="H138" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I138" s="30" t="s">
+      <c r="I138" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J138" s="0" t="s">
@@ -7333,7 +7305,7 @@
       <c r="B139" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D139" s="0" t="n">
@@ -7342,7 +7314,7 @@
       <c r="E139" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F139" s="31" t="n">
+      <c r="F139" s="30" t="n">
         <v>1390</v>
       </c>
       <c r="G139" s="12" t="s">
@@ -7351,7 +7323,7 @@
       <c r="H139" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I139" s="30" t="s">
+      <c r="I139" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J139" s="0" t="s">
@@ -7365,7 +7337,7 @@
       <c r="B140" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C140" s="36" t="s">
+      <c r="C140" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D140" s="0" t="n">
@@ -7374,7 +7346,7 @@
       <c r="E140" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F140" s="31" t="n">
+      <c r="F140" s="30" t="n">
         <v>1879</v>
       </c>
       <c r="G140" s="12" t="s">
@@ -7383,7 +7355,7 @@
       <c r="H140" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I140" s="30" t="s">
+      <c r="I140" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J140" s="0" t="s">
@@ -7397,7 +7369,7 @@
       <c r="B141" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D141" s="0" t="n">
@@ -7406,7 +7378,7 @@
       <c r="E141" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F141" s="31" t="n">
+      <c r="F141" s="30" t="n">
         <v>2623</v>
       </c>
       <c r="G141" s="12" t="s">
@@ -7415,7 +7387,7 @@
       <c r="H141" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I141" s="30" t="s">
+      <c r="I141" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J141" s="0" t="s">
@@ -7429,7 +7401,7 @@
       <c r="B142" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D142" s="0" t="n">
@@ -7438,7 +7410,7 @@
       <c r="E142" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F142" s="31" t="n">
+      <c r="F142" s="30" t="n">
         <v>3480</v>
       </c>
       <c r="G142" s="12" t="s">
@@ -7447,7 +7419,7 @@
       <c r="H142" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I142" s="30" t="s">
+      <c r="I142" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J142" s="0" t="s">
@@ -7461,7 +7433,7 @@
       <c r="B143" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="0" t="n">
@@ -7470,7 +7442,7 @@
       <c r="E143" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F143" s="31" t="n">
+      <c r="F143" s="30" t="n">
         <v>4316</v>
       </c>
       <c r="G143" s="12" t="s">
@@ -7479,7 +7451,7 @@
       <c r="H143" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I143" s="30" t="s">
+      <c r="I143" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J143" s="0" t="s">
@@ -7493,7 +7465,7 @@
       <c r="B144" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D144" s="0" t="n">
@@ -7502,7 +7474,7 @@
       <c r="E144" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F144" s="31" t="n">
+      <c r="F144" s="30" t="n">
         <v>5932</v>
       </c>
       <c r="G144" s="12" t="s">
@@ -7511,7 +7483,7 @@
       <c r="H144" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I144" s="30" t="s">
+      <c r="I144" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J144" s="0" t="s">
@@ -7525,7 +7497,7 @@
       <c r="B145" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C145" s="36" t="s">
+      <c r="C145" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="0" t="n">
@@ -7534,7 +7506,7 @@
       <c r="E145" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F145" s="31" t="n">
+      <c r="F145" s="30" t="n">
         <v>8195</v>
       </c>
       <c r="G145" s="12" t="s">
@@ -7543,7 +7515,7 @@
       <c r="H145" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I145" s="30" t="s">
+      <c r="I145" s="29" t="s">
         <v>75</v>
       </c>
       <c r="J145" s="0" t="s">
@@ -7566,7 +7538,7 @@
       <c r="E146" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F146" s="31" t="n">
+      <c r="F146" s="30" t="n">
         <v>2075</v>
       </c>
       <c r="G146" s="12" t="s">
@@ -7575,7 +7547,7 @@
       <c r="H146" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I146" s="30" t="s">
+      <c r="I146" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J146" s="0" t="s">
@@ -7598,7 +7570,7 @@
       <c r="E147" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F147" s="31" t="n">
+      <c r="F147" s="30" t="n">
         <v>1729</v>
       </c>
       <c r="G147" s="12" t="s">
@@ -7607,7 +7579,7 @@
       <c r="H147" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I147" s="30" t="s">
+      <c r="I147" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J147" s="0" t="s">
@@ -7630,7 +7602,7 @@
       <c r="E148" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F148" s="31" t="n">
+      <c r="F148" s="30" t="n">
         <v>2897</v>
       </c>
       <c r="G148" s="12" t="s">
@@ -7639,7 +7611,7 @@
       <c r="H148" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I148" s="30" t="s">
+      <c r="I148" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J148" s="0" t="s">
@@ -7662,7 +7634,7 @@
       <c r="E149" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F149" s="31" t="n">
+      <c r="F149" s="30" t="n">
         <v>3115</v>
       </c>
       <c r="G149" s="12" t="s">
@@ -7671,7 +7643,7 @@
       <c r="H149" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I149" s="30" t="s">
+      <c r="I149" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J149" s="0" t="s">
@@ -7694,7 +7666,7 @@
       <c r="E150" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F150" s="31" t="n">
+      <c r="F150" s="30" t="n">
         <v>3363</v>
       </c>
       <c r="G150" s="12" t="s">
@@ -7703,7 +7675,7 @@
       <c r="H150" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I150" s="30" t="s">
+      <c r="I150" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J150" s="0" t="s">
@@ -7726,7 +7698,7 @@
       <c r="E151" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F151" s="31" t="n">
+      <c r="F151" s="30" t="n">
         <v>3597</v>
       </c>
       <c r="G151" s="12" t="s">
@@ -7735,7 +7707,7 @@
       <c r="H151" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I151" s="30" t="s">
+      <c r="I151" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J151" s="0" t="s">
@@ -7758,7 +7730,7 @@
       <c r="E152" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F152" s="31" t="n">
+      <c r="F152" s="30" t="n">
         <v>3778</v>
       </c>
       <c r="G152" s="12" t="s">
@@ -7767,7 +7739,7 @@
       <c r="H152" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I152" s="30" t="s">
+      <c r="I152" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J152" s="0" t="s">
@@ -7790,7 +7762,7 @@
       <c r="E153" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F153" s="31" t="n">
+      <c r="F153" s="30" t="n">
         <v>4230</v>
       </c>
       <c r="G153" s="12" t="s">
@@ -7799,7 +7771,7 @@
       <c r="H153" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I153" s="30" t="s">
+      <c r="I153" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J153" s="0" t="s">
@@ -7822,7 +7794,7 @@
       <c r="E154" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F154" s="31" t="n">
+      <c r="F154" s="30" t="n">
         <v>4836</v>
       </c>
       <c r="G154" s="12" t="s">
@@ -7831,7 +7803,7 @@
       <c r="H154" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I154" s="30" t="s">
+      <c r="I154" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J154" s="0" t="s">
@@ -7854,7 +7826,7 @@
       <c r="E155" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F155" s="31" t="n">
+      <c r="F155" s="30" t="n">
         <v>5728</v>
       </c>
       <c r="G155" s="12" t="s">
@@ -7863,7 +7835,7 @@
       <c r="H155" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I155" s="30" t="s">
+      <c r="I155" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J155" s="0" t="s">
@@ -7886,7 +7858,7 @@
       <c r="E156" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F156" s="31" t="n">
+      <c r="F156" s="30" t="n">
         <v>7476</v>
       </c>
       <c r="G156" s="12" t="s">
@@ -7895,7 +7867,7 @@
       <c r="H156" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I156" s="30" t="s">
+      <c r="I156" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J156" s="0" t="s">
@@ -7918,7 +7890,7 @@
       <c r="E157" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F157" s="31" t="n">
+      <c r="F157" s="30" t="n">
         <v>10633</v>
       </c>
       <c r="G157" s="12" t="s">
@@ -7927,7 +7899,7 @@
       <c r="H157" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I157" s="30" t="s">
+      <c r="I157" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J157" s="0" t="s">
@@ -7950,7 +7922,7 @@
       <c r="E158" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F158" s="31" t="n">
+      <c r="F158" s="30" t="n">
         <v>14930</v>
       </c>
       <c r="G158" s="12" t="s">
@@ -7959,7 +7931,7 @@
       <c r="H158" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I158" s="30" t="s">
+      <c r="I158" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J158" s="0" t="s">
@@ -7982,7 +7954,7 @@
       <c r="E159" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F159" s="31" t="n">
+      <c r="F159" s="30" t="n">
         <v>19908</v>
       </c>
       <c r="G159" s="12" t="s">
@@ -7991,7 +7963,7 @@
       <c r="H159" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I159" s="30" t="s">
+      <c r="I159" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J159" s="0" t="s">
@@ -8014,7 +7986,7 @@
       <c r="E160" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F160" s="31" t="n">
+      <c r="F160" s="30" t="n">
         <v>28176</v>
       </c>
       <c r="G160" s="12" t="s">
@@ -8023,7 +7995,7 @@
       <c r="H160" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I160" s="30" t="s">
+      <c r="I160" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J160" s="0" t="s">
@@ -8046,7 +8018,7 @@
       <c r="E161" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F161" s="31" t="n">
+      <c r="F161" s="30" t="n">
         <v>38881</v>
       </c>
       <c r="G161" s="12" t="s">
@@ -8055,7 +8027,7 @@
       <c r="H161" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I161" s="30" t="s">
+      <c r="I161" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J161" s="0" t="s">
@@ -8078,7 +8050,7 @@
       <c r="E162" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F162" s="31" t="n">
+      <c r="F162" s="30" t="n">
         <v>1556</v>
       </c>
       <c r="G162" s="12" t="s">
@@ -8087,7 +8059,7 @@
       <c r="H162" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I162" s="30" t="s">
+      <c r="I162" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J162" s="0" t="s">
@@ -8110,7 +8082,7 @@
       <c r="E163" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F163" s="31" t="n">
+      <c r="F163" s="30" t="n">
         <v>1297</v>
       </c>
       <c r="G163" s="12" t="s">
@@ -8119,7 +8091,7 @@
       <c r="H163" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I163" s="30" t="s">
+      <c r="I163" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J163" s="0" t="s">
@@ -8142,7 +8114,7 @@
       <c r="E164" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F164" s="31" t="n">
+      <c r="F164" s="30" t="n">
         <v>2173</v>
       </c>
       <c r="G164" s="12" t="s">
@@ -8151,7 +8123,7 @@
       <c r="H164" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I164" s="30" t="s">
+      <c r="I164" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J164" s="0" t="s">
@@ -8174,7 +8146,7 @@
       <c r="E165" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F165" s="31" t="n">
+      <c r="F165" s="30" t="n">
         <v>2336</v>
       </c>
       <c r="G165" s="12" t="s">
@@ -8183,7 +8155,7 @@
       <c r="H165" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I165" s="30" t="s">
+      <c r="I165" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J165" s="0" t="s">
@@ -8206,7 +8178,7 @@
       <c r="E166" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F166" s="31" t="n">
+      <c r="F166" s="30" t="n">
         <v>2522</v>
       </c>
       <c r="G166" s="12" t="s">
@@ -8215,7 +8187,7 @@
       <c r="H166" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I166" s="30" t="s">
+      <c r="I166" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J166" s="0" t="s">
@@ -8238,7 +8210,7 @@
       <c r="E167" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F167" s="31" t="n">
+      <c r="F167" s="30" t="n">
         <v>2698</v>
       </c>
       <c r="G167" s="12" t="s">
@@ -8247,7 +8219,7 @@
       <c r="H167" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I167" s="30" t="s">
+      <c r="I167" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J167" s="0" t="s">
@@ -8270,7 +8242,7 @@
       <c r="E168" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F168" s="31" t="n">
+      <c r="F168" s="30" t="n">
         <v>2834</v>
       </c>
       <c r="G168" s="12" t="s">
@@ -8279,7 +8251,7 @@
       <c r="H168" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I168" s="30" t="s">
+      <c r="I168" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J168" s="0" t="s">
@@ -8302,7 +8274,7 @@
       <c r="E169" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F169" s="31" t="n">
+      <c r="F169" s="30" t="n">
         <v>3173</v>
       </c>
       <c r="G169" s="12" t="s">
@@ -8311,7 +8283,7 @@
       <c r="H169" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I169" s="30" t="s">
+      <c r="I169" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J169" s="0" t="s">
@@ -8334,7 +8306,7 @@
       <c r="E170" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F170" s="31" t="n">
+      <c r="F170" s="30" t="n">
         <v>3627</v>
       </c>
       <c r="G170" s="12" t="s">
@@ -8343,7 +8315,7 @@
       <c r="H170" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I170" s="30" t="s">
+      <c r="I170" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J170" s="0" t="s">
@@ -8366,7 +8338,7 @@
       <c r="E171" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F171" s="31" t="n">
+      <c r="F171" s="30" t="n">
         <v>4296</v>
       </c>
       <c r="G171" s="12" t="s">
@@ -8375,7 +8347,7 @@
       <c r="H171" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I171" s="30" t="s">
+      <c r="I171" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J171" s="0" t="s">
@@ -8398,7 +8370,7 @@
       <c r="E172" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F172" s="31" t="n">
+      <c r="F172" s="30" t="n">
         <v>5607</v>
       </c>
       <c r="G172" s="12" t="s">
@@ -8407,7 +8379,7 @@
       <c r="H172" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I172" s="30" t="s">
+      <c r="I172" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J172" s="0" t="s">
@@ -8430,7 +8402,7 @@
       <c r="E173" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F173" s="31" t="n">
+      <c r="F173" s="30" t="n">
         <v>7975</v>
       </c>
       <c r="G173" s="12" t="s">
@@ -8439,7 +8411,7 @@
       <c r="H173" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I173" s="30" t="s">
+      <c r="I173" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J173" s="0" t="s">
@@ -8462,7 +8434,7 @@
       <c r="E174" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F174" s="31" t="n">
+      <c r="F174" s="30" t="n">
         <v>11198</v>
       </c>
       <c r="G174" s="12" t="s">
@@ -8471,7 +8443,7 @@
       <c r="H174" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I174" s="30" t="s">
+      <c r="I174" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J174" s="0" t="s">
@@ -8494,7 +8466,7 @@
       <c r="E175" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F175" s="31" t="n">
+      <c r="F175" s="30" t="n">
         <v>14931</v>
       </c>
       <c r="G175" s="12" t="s">
@@ -8503,7 +8475,7 @@
       <c r="H175" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I175" s="30" t="s">
+      <c r="I175" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J175" s="0" t="s">
@@ -8526,7 +8498,7 @@
       <c r="E176" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F176" s="31" t="n">
+      <c r="F176" s="30" t="n">
         <v>21132</v>
       </c>
       <c r="G176" s="12" t="s">
@@ -8535,7 +8507,7 @@
       <c r="H176" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I176" s="30" t="s">
+      <c r="I176" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J176" s="0" t="s">
@@ -8558,7 +8530,7 @@
       <c r="E177" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F177" s="31" t="n">
+      <c r="F177" s="30" t="n">
         <v>29161</v>
       </c>
       <c r="G177" s="12" t="s">
@@ -8567,7 +8539,7 @@
       <c r="H177" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I177" s="30" t="s">
+      <c r="I177" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J177" s="0" t="s">
@@ -8581,7 +8553,7 @@
       <c r="B178" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C178" s="36" t="s">
+      <c r="C178" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D178" s="0" t="n">
@@ -8590,7 +8562,7 @@
       <c r="E178" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F178" s="31" t="n">
+      <c r="F178" s="30" t="n">
         <v>1556</v>
       </c>
       <c r="G178" s="12" t="s">
@@ -8599,7 +8571,7 @@
       <c r="H178" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I178" s="30" t="s">
+      <c r="I178" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J178" s="0" t="s">
@@ -8613,7 +8585,7 @@
       <c r="B179" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C179" s="36" t="s">
+      <c r="C179" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D179" s="0" t="n">
@@ -8622,7 +8594,7 @@
       <c r="E179" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F179" s="31" t="n">
+      <c r="F179" s="30" t="n">
         <v>1297</v>
       </c>
       <c r="G179" s="12" t="s">
@@ -8631,7 +8603,7 @@
       <c r="H179" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I179" s="30" t="s">
+      <c r="I179" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J179" s="0" t="s">
@@ -8645,7 +8617,7 @@
       <c r="B180" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C180" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D180" s="0" t="n">
@@ -8654,7 +8626,7 @@
       <c r="E180" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F180" s="31" t="n">
+      <c r="F180" s="30" t="n">
         <v>2173</v>
       </c>
       <c r="G180" s="12" t="s">
@@ -8663,7 +8635,7 @@
       <c r="H180" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I180" s="30" t="s">
+      <c r="I180" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J180" s="0" t="s">
@@ -8677,7 +8649,7 @@
       <c r="B181" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C181" s="36" t="s">
+      <c r="C181" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D181" s="0" t="n">
@@ -8686,7 +8658,7 @@
       <c r="E181" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F181" s="31" t="n">
+      <c r="F181" s="30" t="n">
         <v>2336</v>
       </c>
       <c r="G181" s="12" t="s">
@@ -8695,7 +8667,7 @@
       <c r="H181" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I181" s="30" t="s">
+      <c r="I181" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J181" s="0" t="s">
@@ -8709,7 +8681,7 @@
       <c r="B182" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C182" s="36" t="s">
+      <c r="C182" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D182" s="0" t="n">
@@ -8718,7 +8690,7 @@
       <c r="E182" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F182" s="31" t="n">
+      <c r="F182" s="30" t="n">
         <v>2522</v>
       </c>
       <c r="G182" s="12" t="s">
@@ -8727,7 +8699,7 @@
       <c r="H182" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I182" s="30" t="s">
+      <c r="I182" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J182" s="0" t="s">
@@ -8741,7 +8713,7 @@
       <c r="B183" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="C183" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D183" s="0" t="n">
@@ -8750,7 +8722,7 @@
       <c r="E183" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F183" s="31" t="n">
+      <c r="F183" s="30" t="n">
         <v>2698</v>
       </c>
       <c r="G183" s="12" t="s">
@@ -8759,7 +8731,7 @@
       <c r="H183" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I183" s="30" t="s">
+      <c r="I183" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J183" s="0" t="s">
@@ -8773,7 +8745,7 @@
       <c r="B184" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D184" s="0" t="n">
@@ -8782,7 +8754,7 @@
       <c r="E184" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F184" s="31" t="n">
+      <c r="F184" s="30" t="n">
         <v>2834</v>
       </c>
       <c r="G184" s="12" t="s">
@@ -8791,7 +8763,7 @@
       <c r="H184" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I184" s="30" t="s">
+      <c r="I184" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J184" s="0" t="s">
@@ -8805,7 +8777,7 @@
       <c r="B185" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="C185" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D185" s="0" t="n">
@@ -8814,7 +8786,7 @@
       <c r="E185" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F185" s="31" t="n">
+      <c r="F185" s="30" t="n">
         <v>3173</v>
       </c>
       <c r="G185" s="12" t="s">
@@ -8823,7 +8795,7 @@
       <c r="H185" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I185" s="30" t="s">
+      <c r="I185" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J185" s="0" t="s">
@@ -8837,7 +8809,7 @@
       <c r="B186" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C186" s="36" t="s">
+      <c r="C186" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D186" s="0" t="n">
@@ -8846,7 +8818,7 @@
       <c r="E186" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F186" s="31" t="n">
+      <c r="F186" s="30" t="n">
         <v>3627</v>
       </c>
       <c r="G186" s="12" t="s">
@@ -8855,7 +8827,7 @@
       <c r="H186" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I186" s="30" t="s">
+      <c r="I186" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J186" s="0" t="s">
@@ -8869,7 +8841,7 @@
       <c r="B187" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C187" s="36" t="s">
+      <c r="C187" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D187" s="0" t="n">
@@ -8878,7 +8850,7 @@
       <c r="E187" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F187" s="31" t="n">
+      <c r="F187" s="30" t="n">
         <v>4296</v>
       </c>
       <c r="G187" s="12" t="s">
@@ -8887,7 +8859,7 @@
       <c r="H187" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I187" s="30" t="s">
+      <c r="I187" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J187" s="0" t="s">
@@ -8901,7 +8873,7 @@
       <c r="B188" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C188" s="36" t="s">
+      <c r="C188" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D188" s="0" t="n">
@@ -8910,7 +8882,7 @@
       <c r="E188" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F188" s="31" t="n">
+      <c r="F188" s="30" t="n">
         <v>5607</v>
       </c>
       <c r="G188" s="12" t="s">
@@ -8919,7 +8891,7 @@
       <c r="H188" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I188" s="30" t="s">
+      <c r="I188" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J188" s="0" t="s">
@@ -8933,7 +8905,7 @@
       <c r="B189" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C189" s="36" t="s">
+      <c r="C189" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D189" s="0" t="n">
@@ -8942,7 +8914,7 @@
       <c r="E189" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F189" s="31" t="n">
+      <c r="F189" s="30" t="n">
         <v>7975</v>
       </c>
       <c r="G189" s="12" t="s">
@@ -8951,7 +8923,7 @@
       <c r="H189" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I189" s="30" t="s">
+      <c r="I189" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J189" s="0" t="s">
@@ -8965,7 +8937,7 @@
       <c r="B190" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C190" s="36" t="s">
+      <c r="C190" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D190" s="0" t="n">
@@ -8974,7 +8946,7 @@
       <c r="E190" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F190" s="31" t="n">
+      <c r="F190" s="30" t="n">
         <v>11198</v>
       </c>
       <c r="G190" s="12" t="s">
@@ -8983,7 +8955,7 @@
       <c r="H190" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I190" s="30" t="s">
+      <c r="I190" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J190" s="0" t="s">
@@ -8997,7 +8969,7 @@
       <c r="B191" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C191" s="36" t="s">
+      <c r="C191" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D191" s="0" t="n">
@@ -9006,7 +8978,7 @@
       <c r="E191" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F191" s="31" t="n">
+      <c r="F191" s="30" t="n">
         <v>14931</v>
       </c>
       <c r="G191" s="12" t="s">
@@ -9015,7 +8987,7 @@
       <c r="H191" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I191" s="30" t="s">
+      <c r="I191" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J191" s="0" t="s">
@@ -9029,7 +9001,7 @@
       <c r="B192" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C192" s="36" t="s">
+      <c r="C192" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D192" s="0" t="n">
@@ -9038,7 +9010,7 @@
       <c r="E192" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F192" s="31" t="n">
+      <c r="F192" s="30" t="n">
         <v>21132</v>
       </c>
       <c r="G192" s="12" t="s">
@@ -9047,7 +9019,7 @@
       <c r="H192" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I192" s="30" t="s">
+      <c r="I192" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J192" s="0" t="s">
@@ -9061,7 +9033,7 @@
       <c r="B193" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C193" s="36" t="s">
+      <c r="C193" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D193" s="0" t="n">
@@ -9070,7 +9042,7 @@
       <c r="E193" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F193" s="31" t="n">
+      <c r="F193" s="30" t="n">
         <v>29161</v>
       </c>
       <c r="G193" s="12" t="s">
@@ -9079,7 +9051,7 @@
       <c r="H193" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I193" s="30" t="s">
+      <c r="I193" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J193" s="0" t="s">
@@ -9102,16 +9074,16 @@
       <c r="E194" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F194" s="37" t="n">
+      <c r="F194" s="36" t="n">
         <v>1556</v>
       </c>
-      <c r="G194" s="30" t="s">
+      <c r="G194" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I194" s="30" t="s">
+      <c r="I194" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J194" s="0" t="s">
@@ -9134,16 +9106,16 @@
       <c r="E195" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F195" s="37" t="n">
+      <c r="F195" s="36" t="n">
         <v>1297</v>
       </c>
-      <c r="G195" s="30" t="s">
+      <c r="G195" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I195" s="30" t="s">
+      <c r="I195" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J195" s="0" t="s">
@@ -9166,16 +9138,16 @@
       <c r="E196" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F196" s="37" t="n">
+      <c r="F196" s="36" t="n">
         <v>2173</v>
       </c>
-      <c r="G196" s="30" t="s">
+      <c r="G196" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I196" s="30" t="s">
+      <c r="I196" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J196" s="0" t="s">
@@ -9198,16 +9170,16 @@
       <c r="E197" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F197" s="37" t="n">
+      <c r="F197" s="36" t="n">
         <v>2336</v>
       </c>
-      <c r="G197" s="30" t="s">
+      <c r="G197" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I197" s="30" t="s">
+      <c r="I197" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J197" s="0" t="s">
@@ -9230,16 +9202,16 @@
       <c r="E198" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F198" s="37" t="n">
+      <c r="F198" s="36" t="n">
         <v>2522</v>
       </c>
-      <c r="G198" s="30" t="s">
+      <c r="G198" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I198" s="30" t="s">
+      <c r="I198" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J198" s="0" t="s">
@@ -9262,16 +9234,16 @@
       <c r="E199" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F199" s="37" t="n">
+      <c r="F199" s="36" t="n">
         <v>2698</v>
       </c>
-      <c r="G199" s="30" t="s">
+      <c r="G199" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I199" s="30" t="s">
+      <c r="I199" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J199" s="0" t="s">
@@ -9294,16 +9266,16 @@
       <c r="E200" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F200" s="37" t="n">
+      <c r="F200" s="36" t="n">
         <v>2834</v>
       </c>
-      <c r="G200" s="30" t="s">
+      <c r="G200" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I200" s="30" t="s">
+      <c r="I200" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J200" s="0" t="s">
@@ -9326,16 +9298,16 @@
       <c r="E201" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F201" s="37" t="n">
+      <c r="F201" s="36" t="n">
         <v>3173</v>
       </c>
-      <c r="G201" s="30" t="s">
+      <c r="G201" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I201" s="30" t="s">
+      <c r="I201" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J201" s="0" t="s">
@@ -9358,16 +9330,16 @@
       <c r="E202" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F202" s="37" t="n">
+      <c r="F202" s="36" t="n">
         <v>3627</v>
       </c>
-      <c r="G202" s="30" t="s">
+      <c r="G202" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I202" s="30" t="s">
+      <c r="I202" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J202" s="0" t="s">
@@ -9390,16 +9362,16 @@
       <c r="E203" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F203" s="37" t="n">
+      <c r="F203" s="36" t="n">
         <v>4296</v>
       </c>
-      <c r="G203" s="30" t="s">
+      <c r="G203" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I203" s="30" t="s">
+      <c r="I203" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J203" s="0" t="s">
@@ -9422,16 +9394,16 @@
       <c r="E204" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F204" s="37" t="n">
+      <c r="F204" s="36" t="n">
         <v>5607</v>
       </c>
-      <c r="G204" s="30" t="s">
+      <c r="G204" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I204" s="30" t="s">
+      <c r="I204" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J204" s="0" t="s">
@@ -9454,16 +9426,16 @@
       <c r="E205" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F205" s="37" t="n">
+      <c r="F205" s="36" t="n">
         <v>7975</v>
       </c>
-      <c r="G205" s="30" t="s">
+      <c r="G205" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I205" s="30" t="s">
+      <c r="I205" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J205" s="0" t="s">
@@ -9486,16 +9458,16 @@
       <c r="E206" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F206" s="37" t="n">
+      <c r="F206" s="36" t="n">
         <v>11198</v>
       </c>
-      <c r="G206" s="30" t="s">
+      <c r="G206" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I206" s="30" t="s">
+      <c r="I206" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J206" s="0" t="s">
@@ -9518,16 +9490,16 @@
       <c r="E207" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F207" s="37" t="n">
+      <c r="F207" s="36" t="n">
         <v>14931</v>
       </c>
-      <c r="G207" s="30" t="s">
+      <c r="G207" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I207" s="30" t="s">
+      <c r="I207" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J207" s="0" t="s">
@@ -9550,16 +9522,16 @@
       <c r="E208" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F208" s="37" t="n">
+      <c r="F208" s="36" t="n">
         <v>21132</v>
       </c>
-      <c r="G208" s="30" t="s">
+      <c r="G208" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I208" s="30" t="s">
+      <c r="I208" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J208" s="0" t="s">
@@ -9582,16 +9554,16 @@
       <c r="E209" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F209" s="37" t="n">
+      <c r="F209" s="36" t="n">
         <v>29161</v>
       </c>
-      <c r="G209" s="30" t="s">
+      <c r="G209" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I209" s="30" t="s">
+      <c r="I209" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J209" s="0" t="s">
@@ -9614,16 +9586,16 @@
       <c r="E210" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F210" s="37" t="n">
+      <c r="F210" s="36" t="n">
         <v>1167</v>
       </c>
-      <c r="G210" s="30" t="s">
+      <c r="G210" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I210" s="30" t="s">
+      <c r="I210" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J210" s="0" t="s">
@@ -9646,16 +9618,16 @@
       <c r="E211" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F211" s="37" t="n">
+      <c r="F211" s="36" t="n">
         <v>973</v>
       </c>
-      <c r="G211" s="30" t="s">
+      <c r="G211" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I211" s="30" t="s">
+      <c r="I211" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J211" s="0" t="s">
@@ -9678,16 +9650,16 @@
       <c r="E212" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F212" s="37" t="n">
+      <c r="F212" s="36" t="n">
         <v>1630</v>
       </c>
-      <c r="G212" s="30" t="s">
+      <c r="G212" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I212" s="30" t="s">
+      <c r="I212" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J212" s="0" t="s">
@@ -9710,16 +9682,16 @@
       <c r="E213" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F213" s="37" t="n">
+      <c r="F213" s="36" t="n">
         <v>1752</v>
       </c>
-      <c r="G213" s="30" t="s">
+      <c r="G213" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I213" s="30" t="s">
+      <c r="I213" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J213" s="0" t="s">
@@ -9742,16 +9714,16 @@
       <c r="E214" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F214" s="37" t="n">
+      <c r="F214" s="36" t="n">
         <v>1892</v>
       </c>
-      <c r="G214" s="30" t="s">
+      <c r="G214" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I214" s="30" t="s">
+      <c r="I214" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J214" s="0" t="s">
@@ -9774,16 +9746,16 @@
       <c r="E215" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F215" s="37" t="n">
+      <c r="F215" s="36" t="n">
         <v>2023</v>
       </c>
-      <c r="G215" s="30" t="s">
+      <c r="G215" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I215" s="30" t="s">
+      <c r="I215" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J215" s="0" t="s">
@@ -9806,16 +9778,16 @@
       <c r="E216" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F216" s="37" t="n">
+      <c r="F216" s="36" t="n">
         <v>2125</v>
       </c>
-      <c r="G216" s="30" t="s">
+      <c r="G216" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I216" s="30" t="s">
+      <c r="I216" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J216" s="0" t="s">
@@ -9838,16 +9810,16 @@
       <c r="E217" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F217" s="37" t="n">
+      <c r="F217" s="36" t="n">
         <v>2379</v>
       </c>
-      <c r="G217" s="30" t="s">
+      <c r="G217" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I217" s="30" t="s">
+      <c r="I217" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J217" s="0" t="s">
@@ -9870,16 +9842,16 @@
       <c r="E218" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F218" s="37" t="n">
+      <c r="F218" s="36" t="n">
         <v>2720</v>
       </c>
-      <c r="G218" s="30" t="s">
+      <c r="G218" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I218" s="30" t="s">
+      <c r="I218" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J218" s="0" t="s">
@@ -9902,16 +9874,16 @@
       <c r="E219" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F219" s="37" t="n">
+      <c r="F219" s="36" t="n">
         <v>3222</v>
       </c>
-      <c r="G219" s="30" t="s">
+      <c r="G219" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I219" s="30" t="s">
+      <c r="I219" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J219" s="0" t="s">
@@ -9934,16 +9906,16 @@
       <c r="E220" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F220" s="37" t="n">
+      <c r="F220" s="36" t="n">
         <v>4205</v>
       </c>
-      <c r="G220" s="30" t="s">
+      <c r="G220" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I220" s="30" t="s">
+      <c r="I220" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J220" s="0" t="s">
@@ -9966,16 +9938,16 @@
       <c r="E221" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F221" s="37" t="n">
+      <c r="F221" s="36" t="n">
         <v>5981</v>
       </c>
-      <c r="G221" s="30" t="s">
+      <c r="G221" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I221" s="30" t="s">
+      <c r="I221" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J221" s="0" t="s">
@@ -9998,16 +9970,16 @@
       <c r="E222" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F222" s="37" t="n">
+      <c r="F222" s="36" t="n">
         <v>8398</v>
       </c>
-      <c r="G222" s="30" t="s">
+      <c r="G222" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I222" s="30" t="s">
+      <c r="I222" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J222" s="0" t="s">
@@ -10030,16 +10002,16 @@
       <c r="E223" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F223" s="37" t="n">
+      <c r="F223" s="36" t="n">
         <v>11198</v>
       </c>
-      <c r="G223" s="30" t="s">
+      <c r="G223" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I223" s="30" t="s">
+      <c r="I223" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J223" s="0" t="s">
@@ -10062,16 +10034,16 @@
       <c r="E224" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F224" s="37" t="n">
+      <c r="F224" s="36" t="n">
         <v>15849</v>
       </c>
-      <c r="G224" s="30" t="s">
+      <c r="G224" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I224" s="30" t="s">
+      <c r="I224" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J224" s="0" t="s">
@@ -10094,16 +10066,16 @@
       <c r="E225" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F225" s="37" t="n">
+      <c r="F225" s="36" t="n">
         <v>21871</v>
       </c>
-      <c r="G225" s="30" t="s">
+      <c r="G225" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I225" s="30" t="s">
+      <c r="I225" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J225" s="0" t="s">
@@ -10117,7 +10089,7 @@
       <c r="B226" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D226" s="0" t="n">
@@ -10126,16 +10098,16 @@
       <c r="E226" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F226" s="37" t="n">
+      <c r="F226" s="36" t="n">
         <v>1167</v>
       </c>
-      <c r="G226" s="30" t="s">
+      <c r="G226" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I226" s="30" t="s">
+      <c r="I226" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J226" s="0" t="s">
@@ -10149,7 +10121,7 @@
       <c r="B227" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C227" s="36" t="s">
+      <c r="C227" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D227" s="0" t="n">
@@ -10158,16 +10130,16 @@
       <c r="E227" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F227" s="37" t="n">
+      <c r="F227" s="36" t="n">
         <v>973</v>
       </c>
-      <c r="G227" s="30" t="s">
+      <c r="G227" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I227" s="30" t="s">
+      <c r="I227" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J227" s="0" t="s">
@@ -10181,7 +10153,7 @@
       <c r="B228" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C228" s="36" t="s">
+      <c r="C228" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D228" s="0" t="n">
@@ -10190,16 +10162,16 @@
       <c r="E228" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F228" s="37" t="n">
+      <c r="F228" s="36" t="n">
         <v>1630</v>
       </c>
-      <c r="G228" s="30" t="s">
+      <c r="G228" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I228" s="30" t="s">
+      <c r="I228" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J228" s="0" t="s">
@@ -10213,7 +10185,7 @@
       <c r="B229" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C229" s="36" t="s">
+      <c r="C229" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D229" s="0" t="n">
@@ -10222,16 +10194,16 @@
       <c r="E229" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F229" s="37" t="n">
+      <c r="F229" s="36" t="n">
         <v>1752</v>
       </c>
-      <c r="G229" s="30" t="s">
+      <c r="G229" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I229" s="30" t="s">
+      <c r="I229" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J229" s="0" t="s">
@@ -10245,7 +10217,7 @@
       <c r="B230" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C230" s="36" t="s">
+      <c r="C230" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D230" s="0" t="n">
@@ -10254,16 +10226,16 @@
       <c r="E230" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F230" s="37" t="n">
+      <c r="F230" s="36" t="n">
         <v>1892</v>
       </c>
-      <c r="G230" s="30" t="s">
+      <c r="G230" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I230" s="30" t="s">
+      <c r="I230" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J230" s="0" t="s">
@@ -10277,7 +10249,7 @@
       <c r="B231" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C231" s="36" t="s">
+      <c r="C231" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D231" s="0" t="n">
@@ -10286,16 +10258,16 @@
       <c r="E231" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F231" s="37" t="n">
+      <c r="F231" s="36" t="n">
         <v>2023</v>
       </c>
-      <c r="G231" s="30" t="s">
+      <c r="G231" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I231" s="30" t="s">
+      <c r="I231" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J231" s="0" t="s">
@@ -10309,7 +10281,7 @@
       <c r="B232" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C232" s="36" t="s">
+      <c r="C232" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D232" s="0" t="n">
@@ -10318,16 +10290,16 @@
       <c r="E232" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F232" s="37" t="n">
+      <c r="F232" s="36" t="n">
         <v>2125</v>
       </c>
-      <c r="G232" s="30" t="s">
+      <c r="G232" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I232" s="30" t="s">
+      <c r="I232" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J232" s="0" t="s">
@@ -10341,7 +10313,7 @@
       <c r="B233" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D233" s="0" t="n">
@@ -10350,16 +10322,16 @@
       <c r="E233" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F233" s="37" t="n">
+      <c r="F233" s="36" t="n">
         <v>2379</v>
       </c>
-      <c r="G233" s="30" t="s">
+      <c r="G233" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I233" s="30" t="s">
+      <c r="I233" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J233" s="0" t="s">
@@ -10373,7 +10345,7 @@
       <c r="B234" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C234" s="36" t="s">
+      <c r="C234" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D234" s="0" t="n">
@@ -10382,16 +10354,16 @@
       <c r="E234" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F234" s="37" t="n">
+      <c r="F234" s="36" t="n">
         <v>2720</v>
       </c>
-      <c r="G234" s="30" t="s">
+      <c r="G234" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I234" s="30" t="s">
+      <c r="I234" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J234" s="0" t="s">
@@ -10405,7 +10377,7 @@
       <c r="B235" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C235" s="36" t="s">
+      <c r="C235" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D235" s="0" t="n">
@@ -10414,16 +10386,16 @@
       <c r="E235" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F235" s="37" t="n">
+      <c r="F235" s="36" t="n">
         <v>3222</v>
       </c>
-      <c r="G235" s="30" t="s">
+      <c r="G235" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I235" s="30" t="s">
+      <c r="I235" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J235" s="0" t="s">
@@ -10437,7 +10409,7 @@
       <c r="B236" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C236" s="36" t="s">
+      <c r="C236" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D236" s="0" t="n">
@@ -10446,16 +10418,16 @@
       <c r="E236" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F236" s="37" t="n">
+      <c r="F236" s="36" t="n">
         <v>4205</v>
       </c>
-      <c r="G236" s="30" t="s">
+      <c r="G236" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I236" s="30" t="s">
+      <c r="I236" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J236" s="0" t="s">
@@ -10469,7 +10441,7 @@
       <c r="B237" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C237" s="36" t="s">
+      <c r="C237" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D237" s="0" t="n">
@@ -10478,16 +10450,16 @@
       <c r="E237" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F237" s="37" t="n">
+      <c r="F237" s="36" t="n">
         <v>5981</v>
       </c>
-      <c r="G237" s="30" t="s">
+      <c r="G237" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I237" s="30" t="s">
+      <c r="I237" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J237" s="0" t="s">
@@ -10501,7 +10473,7 @@
       <c r="B238" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C238" s="36" t="s">
+      <c r="C238" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D238" s="0" t="n">
@@ -10510,16 +10482,16 @@
       <c r="E238" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F238" s="37" t="n">
+      <c r="F238" s="36" t="n">
         <v>8398</v>
       </c>
-      <c r="G238" s="30" t="s">
+      <c r="G238" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I238" s="30" t="s">
+      <c r="I238" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J238" s="0" t="s">
@@ -10533,7 +10505,7 @@
       <c r="B239" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C239" s="36" t="s">
+      <c r="C239" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D239" s="0" t="n">
@@ -10542,16 +10514,16 @@
       <c r="E239" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F239" s="37" t="n">
+      <c r="F239" s="36" t="n">
         <v>11198</v>
       </c>
-      <c r="G239" s="30" t="s">
+      <c r="G239" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I239" s="30" t="s">
+      <c r="I239" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J239" s="0" t="s">
@@ -10565,7 +10537,7 @@
       <c r="B240" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D240" s="0" t="n">
@@ -10574,16 +10546,16 @@
       <c r="E240" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F240" s="37" t="n">
+      <c r="F240" s="36" t="n">
         <v>15849</v>
       </c>
-      <c r="G240" s="30" t="s">
+      <c r="G240" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I240" s="30" t="s">
+      <c r="I240" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J240" s="0" t="s">
@@ -10597,7 +10569,7 @@
       <c r="B241" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C241" s="36" t="s">
+      <c r="C241" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D241" s="0" t="n">
@@ -10606,16 +10578,16 @@
       <c r="E241" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F241" s="37" t="n">
+      <c r="F241" s="36" t="n">
         <v>21871</v>
       </c>
-      <c r="G241" s="30" t="s">
+      <c r="G241" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I241" s="30" t="s">
+      <c r="I241" s="29" t="s">
         <v>77</v>
       </c>
       <c r="J241" s="0" t="s">
@@ -10638,7 +10610,7 @@
       <c r="E242" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F242" s="31" t="n">
+      <c r="F242" s="30" t="n">
         <v>3179</v>
       </c>
       <c r="G242" s="12" t="s">
@@ -10647,7 +10619,7 @@
       <c r="H242" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I242" s="30" t="s">
+      <c r="I242" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J242" s="0" t="s">
@@ -10670,7 +10642,7 @@
       <c r="E243" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F243" s="31" t="n">
+      <c r="F243" s="30" t="n">
         <v>2649</v>
       </c>
       <c r="G243" s="12" t="s">
@@ -10679,7 +10651,7 @@
       <c r="H243" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I243" s="30" t="s">
+      <c r="I243" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J243" s="0" t="s">
@@ -10702,7 +10674,7 @@
       <c r="E244" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F244" s="31" t="n">
+      <c r="F244" s="30" t="n">
         <v>4399</v>
       </c>
       <c r="G244" s="12" t="s">
@@ -10711,7 +10683,7 @@
       <c r="H244" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I244" s="30" t="s">
+      <c r="I244" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J244" s="0" t="s">
@@ -10734,7 +10706,7 @@
       <c r="E245" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F245" s="31" t="n">
+      <c r="F245" s="30" t="n">
         <v>4647</v>
       </c>
       <c r="G245" s="12" t="s">
@@ -10743,7 +10715,7 @@
       <c r="H245" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I245" s="30" t="s">
+      <c r="I245" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J245" s="0" t="s">
@@ -10766,7 +10738,7 @@
       <c r="E246" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F246" s="31" t="n">
+      <c r="F246" s="30" t="n">
         <v>4978</v>
       </c>
       <c r="G246" s="12" t="s">
@@ -10775,7 +10747,7 @@
       <c r="H246" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I246" s="30" t="s">
+      <c r="I246" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J246" s="0" t="s">
@@ -10798,7 +10770,7 @@
       <c r="E247" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F247" s="31" t="n">
+      <c r="F247" s="30" t="n">
         <v>5228</v>
       </c>
       <c r="G247" s="12" t="s">
@@ -10807,7 +10779,7 @@
       <c r="H247" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I247" s="30" t="s">
+      <c r="I247" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J247" s="0" t="s">
@@ -10830,7 +10802,7 @@
       <c r="E248" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F248" s="31" t="n">
+      <c r="F248" s="30" t="n">
         <v>5690</v>
       </c>
       <c r="G248" s="12" t="s">
@@ -10839,7 +10811,7 @@
       <c r="H248" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I248" s="30" t="s">
+      <c r="I248" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J248" s="0" t="s">
@@ -10862,7 +10834,7 @@
       <c r="E249" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F249" s="31" t="n">
+      <c r="F249" s="30" t="n">
         <v>5953</v>
       </c>
       <c r="G249" s="12" t="s">
@@ -10871,7 +10843,7 @@
       <c r="H249" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I249" s="30" t="s">
+      <c r="I249" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J249" s="0" t="s">
@@ -10894,7 +10866,7 @@
       <c r="E250" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F250" s="31" t="n">
+      <c r="F250" s="30" t="n">
         <v>7001</v>
       </c>
       <c r="G250" s="12" t="s">
@@ -10903,7 +10875,7 @@
       <c r="H250" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I250" s="30" t="s">
+      <c r="I250" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J250" s="0" t="s">
@@ -10926,7 +10898,7 @@
       <c r="E251" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F251" s="31" t="n">
+      <c r="F251" s="30" t="n">
         <v>7794</v>
       </c>
       <c r="G251" s="12" t="s">
@@ -10935,7 +10907,7 @@
       <c r="H251" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I251" s="30" t="s">
+      <c r="I251" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J251" s="0" t="s">
@@ -10958,7 +10930,7 @@
       <c r="E252" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F252" s="31" t="n">
+      <c r="F252" s="30" t="n">
         <v>10627</v>
       </c>
       <c r="G252" s="12" t="s">
@@ -10967,7 +10939,7 @@
       <c r="H252" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I252" s="30" t="s">
+      <c r="I252" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J252" s="0" t="s">
@@ -10990,7 +10962,7 @@
       <c r="E253" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F253" s="31" t="n">
+      <c r="F253" s="30" t="n">
         <v>16470</v>
       </c>
       <c r="G253" s="12" t="s">
@@ -10999,7 +10971,7 @@
       <c r="H253" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I253" s="30" t="s">
+      <c r="I253" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J253" s="0" t="s">
@@ -11022,7 +10994,7 @@
       <c r="E254" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F254" s="31" t="n">
+      <c r="F254" s="30" t="n">
         <v>22725</v>
       </c>
       <c r="G254" s="12" t="s">
@@ -11031,7 +11003,7 @@
       <c r="H254" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I254" s="30" t="s">
+      <c r="I254" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J254" s="0" t="s">
@@ -11054,7 +11026,7 @@
       <c r="E255" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F255" s="31" t="n">
+      <c r="F255" s="30" t="n">
         <v>30572</v>
       </c>
       <c r="G255" s="12" t="s">
@@ -11063,7 +11035,7 @@
       <c r="H255" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I255" s="30" t="s">
+      <c r="I255" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J255" s="0" t="s">
@@ -11086,7 +11058,7 @@
       <c r="E256" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F256" s="31" t="n">
+      <c r="F256" s="30" t="n">
         <v>42689</v>
       </c>
       <c r="G256" s="12" t="s">
@@ -11095,7 +11067,7 @@
       <c r="H256" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I256" s="30" t="s">
+      <c r="I256" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J256" s="0" t="s">
@@ -11118,7 +11090,7 @@
       <c r="E257" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F257" s="31" t="n">
+      <c r="F257" s="30" t="n">
         <v>59484</v>
       </c>
       <c r="G257" s="12" t="s">
@@ -11127,7 +11099,7 @@
       <c r="H257" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I257" s="30" t="s">
+      <c r="I257" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J257" s="0" t="s">
@@ -11150,7 +11122,7 @@
       <c r="E258" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F258" s="31" t="n">
+      <c r="F258" s="30" t="n">
         <v>2384</v>
       </c>
       <c r="G258" s="12" t="s">
@@ -11159,7 +11131,7 @@
       <c r="H258" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I258" s="30" t="s">
+      <c r="I258" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J258" s="0" t="s">
@@ -11182,7 +11154,7 @@
       <c r="E259" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F259" s="31" t="n">
+      <c r="F259" s="30" t="n">
         <v>1987</v>
       </c>
       <c r="G259" s="12" t="s">
@@ -11191,7 +11163,7 @@
       <c r="H259" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I259" s="30" t="s">
+      <c r="I259" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J259" s="0" t="s">
@@ -11214,7 +11186,7 @@
       <c r="E260" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F260" s="31" t="n">
+      <c r="F260" s="30" t="n">
         <v>3299</v>
       </c>
       <c r="G260" s="12" t="s">
@@ -11223,7 +11195,7 @@
       <c r="H260" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I260" s="30" t="s">
+      <c r="I260" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J260" s="0" t="s">
@@ -11246,7 +11218,7 @@
       <c r="E261" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F261" s="31" t="n">
+      <c r="F261" s="30" t="n">
         <v>3485</v>
       </c>
       <c r="G261" s="12" t="s">
@@ -11255,7 +11227,7 @@
       <c r="H261" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I261" s="30" t="s">
+      <c r="I261" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J261" s="0" t="s">
@@ -11278,7 +11250,7 @@
       <c r="E262" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F262" s="31" t="n">
+      <c r="F262" s="30" t="n">
         <v>3734</v>
       </c>
       <c r="G262" s="12" t="s">
@@ -11287,7 +11259,7 @@
       <c r="H262" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I262" s="30" t="s">
+      <c r="I262" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J262" s="0" t="s">
@@ -11310,7 +11282,7 @@
       <c r="E263" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F263" s="31" t="n">
+      <c r="F263" s="30" t="n">
         <v>3921</v>
       </c>
       <c r="G263" s="12" t="s">
@@ -11319,7 +11291,7 @@
       <c r="H263" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I263" s="30" t="s">
+      <c r="I263" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J263" s="0" t="s">
@@ -11342,7 +11314,7 @@
       <c r="E264" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F264" s="31" t="n">
+      <c r="F264" s="30" t="n">
         <v>4268</v>
       </c>
       <c r="G264" s="12" t="s">
@@ -11351,7 +11323,7 @@
       <c r="H264" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I264" s="30" t="s">
+      <c r="I264" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J264" s="0" t="s">
@@ -11374,7 +11346,7 @@
       <c r="E265" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F265" s="31" t="n">
+      <c r="F265" s="30" t="n">
         <v>4465</v>
       </c>
       <c r="G265" s="12" t="s">
@@ -11383,7 +11355,7 @@
       <c r="H265" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I265" s="30" t="s">
+      <c r="I265" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J265" s="0" t="s">
@@ -11406,7 +11378,7 @@
       <c r="E266" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F266" s="31" t="n">
+      <c r="F266" s="30" t="n">
         <v>5251</v>
       </c>
       <c r="G266" s="12" t="s">
@@ -11415,7 +11387,7 @@
       <c r="H266" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I266" s="30" t="s">
+      <c r="I266" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J266" s="0" t="s">
@@ -11438,7 +11410,7 @@
       <c r="E267" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F267" s="31" t="n">
+      <c r="F267" s="30" t="n">
         <v>5846</v>
       </c>
       <c r="G267" s="12" t="s">
@@ -11447,7 +11419,7 @@
       <c r="H267" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I267" s="30" t="s">
+      <c r="I267" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J267" s="0" t="s">
@@ -11470,7 +11442,7 @@
       <c r="E268" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F268" s="31" t="n">
+      <c r="F268" s="30" t="n">
         <v>7970</v>
       </c>
       <c r="G268" s="12" t="s">
@@ -11479,7 +11451,7 @@
       <c r="H268" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I268" s="30" t="s">
+      <c r="I268" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J268" s="0" t="s">
@@ -11502,7 +11474,7 @@
       <c r="E269" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F269" s="31" t="n">
+      <c r="F269" s="30" t="n">
         <v>12353</v>
       </c>
       <c r="G269" s="12" t="s">
@@ -11511,7 +11483,7 @@
       <c r="H269" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I269" s="30" t="s">
+      <c r="I269" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J269" s="0" t="s">
@@ -11534,7 +11506,7 @@
       <c r="E270" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F270" s="31" t="n">
+      <c r="F270" s="30" t="n">
         <v>17044</v>
       </c>
       <c r="G270" s="12" t="s">
@@ -11543,7 +11515,7 @@
       <c r="H270" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I270" s="30" t="s">
+      <c r="I270" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J270" s="0" t="s">
@@ -11566,7 +11538,7 @@
       <c r="E271" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F271" s="31" t="n">
+      <c r="F271" s="30" t="n">
         <v>22929</v>
       </c>
       <c r="G271" s="12" t="s">
@@ -11575,7 +11547,7 @@
       <c r="H271" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I271" s="30" t="s">
+      <c r="I271" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J271" s="0" t="s">
@@ -11598,7 +11570,7 @@
       <c r="E272" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F272" s="31" t="n">
+      <c r="F272" s="30" t="n">
         <v>32017</v>
       </c>
       <c r="G272" s="12" t="s">
@@ -11607,7 +11579,7 @@
       <c r="H272" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I272" s="30" t="s">
+      <c r="I272" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J272" s="0" t="s">
@@ -11630,7 +11602,7 @@
       <c r="E273" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F273" s="31" t="n">
+      <c r="F273" s="30" t="n">
         <v>44613</v>
       </c>
       <c r="G273" s="12" t="s">
@@ -11639,7 +11611,7 @@
       <c r="H273" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I273" s="30" t="s">
+      <c r="I273" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J273" s="0" t="s">
@@ -11653,7 +11625,7 @@
       <c r="B274" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C274" s="36" t="s">
+      <c r="C274" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D274" s="0" t="n">
@@ -11662,7 +11634,7 @@
       <c r="E274" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F274" s="31" t="n">
+      <c r="F274" s="30" t="n">
         <v>2384</v>
       </c>
       <c r="G274" s="12" t="s">
@@ -11671,7 +11643,7 @@
       <c r="H274" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I274" s="30" t="s">
+      <c r="I274" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J274" s="0" t="s">
@@ -11685,7 +11657,7 @@
       <c r="B275" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D275" s="0" t="n">
@@ -11694,7 +11666,7 @@
       <c r="E275" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F275" s="31" t="n">
+      <c r="F275" s="30" t="n">
         <v>1987</v>
       </c>
       <c r="G275" s="12" t="s">
@@ -11703,7 +11675,7 @@
       <c r="H275" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I275" s="30" t="s">
+      <c r="I275" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J275" s="0" t="s">
@@ -11717,7 +11689,7 @@
       <c r="B276" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D276" s="0" t="n">
@@ -11726,7 +11698,7 @@
       <c r="E276" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F276" s="31" t="n">
+      <c r="F276" s="30" t="n">
         <v>3299</v>
       </c>
       <c r="G276" s="12" t="s">
@@ -11735,7 +11707,7 @@
       <c r="H276" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I276" s="30" t="s">
+      <c r="I276" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J276" s="0" t="s">
@@ -11749,7 +11721,7 @@
       <c r="B277" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D277" s="0" t="n">
@@ -11758,7 +11730,7 @@
       <c r="E277" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F277" s="31" t="n">
+      <c r="F277" s="30" t="n">
         <v>3485</v>
       </c>
       <c r="G277" s="12" t="s">
@@ -11767,7 +11739,7 @@
       <c r="H277" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I277" s="30" t="s">
+      <c r="I277" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J277" s="0" t="s">
@@ -11781,7 +11753,7 @@
       <c r="B278" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D278" s="0" t="n">
@@ -11790,7 +11762,7 @@
       <c r="E278" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F278" s="31" t="n">
+      <c r="F278" s="30" t="n">
         <v>3734</v>
       </c>
       <c r="G278" s="12" t="s">
@@ -11799,7 +11771,7 @@
       <c r="H278" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I278" s="30" t="s">
+      <c r="I278" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J278" s="0" t="s">
@@ -11813,7 +11785,7 @@
       <c r="B279" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C279" s="36" t="s">
+      <c r="C279" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D279" s="0" t="n">
@@ -11822,7 +11794,7 @@
       <c r="E279" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F279" s="31" t="n">
+      <c r="F279" s="30" t="n">
         <v>3921</v>
       </c>
       <c r="G279" s="12" t="s">
@@ -11831,7 +11803,7 @@
       <c r="H279" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I279" s="30" t="s">
+      <c r="I279" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J279" s="0" t="s">
@@ -11845,7 +11817,7 @@
       <c r="B280" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D280" s="0" t="n">
@@ -11854,7 +11826,7 @@
       <c r="E280" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F280" s="31" t="n">
+      <c r="F280" s="30" t="n">
         <v>4268</v>
       </c>
       <c r="G280" s="12" t="s">
@@ -11863,7 +11835,7 @@
       <c r="H280" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I280" s="30" t="s">
+      <c r="I280" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J280" s="0" t="s">
@@ -11877,7 +11849,7 @@
       <c r="B281" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C281" s="36" t="s">
+      <c r="C281" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D281" s="0" t="n">
@@ -11886,7 +11858,7 @@
       <c r="E281" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F281" s="31" t="n">
+      <c r="F281" s="30" t="n">
         <v>4465</v>
       </c>
       <c r="G281" s="12" t="s">
@@ -11895,7 +11867,7 @@
       <c r="H281" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I281" s="30" t="s">
+      <c r="I281" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J281" s="0" t="s">
@@ -11909,7 +11881,7 @@
       <c r="B282" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D282" s="0" t="n">
@@ -11918,7 +11890,7 @@
       <c r="E282" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F282" s="31" t="n">
+      <c r="F282" s="30" t="n">
         <v>5251</v>
       </c>
       <c r="G282" s="12" t="s">
@@ -11927,7 +11899,7 @@
       <c r="H282" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I282" s="30" t="s">
+      <c r="I282" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J282" s="0" t="s">
@@ -11941,7 +11913,7 @@
       <c r="B283" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D283" s="0" t="n">
@@ -11950,7 +11922,7 @@
       <c r="E283" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F283" s="31" t="n">
+      <c r="F283" s="30" t="n">
         <v>5846</v>
       </c>
       <c r="G283" s="12" t="s">
@@ -11959,7 +11931,7 @@
       <c r="H283" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I283" s="30" t="s">
+      <c r="I283" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J283" s="0" t="s">
@@ -11973,7 +11945,7 @@
       <c r="B284" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C284" s="36" t="s">
+      <c r="C284" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D284" s="0" t="n">
@@ -11982,7 +11954,7 @@
       <c r="E284" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F284" s="31" t="n">
+      <c r="F284" s="30" t="n">
         <v>7970</v>
       </c>
       <c r="G284" s="12" t="s">
@@ -11991,7 +11963,7 @@
       <c r="H284" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I284" s="30" t="s">
+      <c r="I284" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J284" s="0" t="s">
@@ -12005,7 +11977,7 @@
       <c r="B285" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C285" s="36" t="s">
+      <c r="C285" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D285" s="0" t="n">
@@ -12014,7 +11986,7 @@
       <c r="E285" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F285" s="31" t="n">
+      <c r="F285" s="30" t="n">
         <v>12353</v>
       </c>
       <c r="G285" s="12" t="s">
@@ -12023,7 +11995,7 @@
       <c r="H285" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I285" s="30" t="s">
+      <c r="I285" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J285" s="0" t="s">
@@ -12037,7 +12009,7 @@
       <c r="B286" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C286" s="36" t="s">
+      <c r="C286" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D286" s="0" t="n">
@@ -12046,7 +12018,7 @@
       <c r="E286" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F286" s="31" t="n">
+      <c r="F286" s="30" t="n">
         <v>17044</v>
       </c>
       <c r="G286" s="12" t="s">
@@ -12055,7 +12027,7 @@
       <c r="H286" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I286" s="30" t="s">
+      <c r="I286" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J286" s="0" t="s">
@@ -12069,7 +12041,7 @@
       <c r="B287" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C287" s="36" t="s">
+      <c r="C287" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D287" s="0" t="n">
@@ -12078,7 +12050,7 @@
       <c r="E287" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F287" s="31" t="n">
+      <c r="F287" s="30" t="n">
         <v>22929</v>
       </c>
       <c r="G287" s="12" t="s">
@@ -12087,7 +12059,7 @@
       <c r="H287" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I287" s="30" t="s">
+      <c r="I287" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J287" s="0" t="s">
@@ -12101,7 +12073,7 @@
       <c r="B288" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D288" s="0" t="n">
@@ -12110,7 +12082,7 @@
       <c r="E288" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F288" s="31" t="n">
+      <c r="F288" s="30" t="n">
         <v>32017</v>
       </c>
       <c r="G288" s="12" t="s">
@@ -12119,7 +12091,7 @@
       <c r="H288" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I288" s="30" t="s">
+      <c r="I288" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J288" s="0" t="s">
@@ -12133,7 +12105,7 @@
       <c r="B289" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C289" s="36" t="s">
+      <c r="C289" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D289" s="0" t="n">
@@ -12142,7 +12114,7 @@
       <c r="E289" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F289" s="31" t="n">
+      <c r="F289" s="30" t="n">
         <v>44613</v>
       </c>
       <c r="G289" s="12" t="s">
@@ -12151,7 +12123,7 @@
       <c r="H289" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I289" s="30" t="s">
+      <c r="I289" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J289" s="0" t="s">
@@ -12174,16 +12146,16 @@
       <c r="E290" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F290" s="37" t="n">
+      <c r="F290" s="36" t="n">
         <v>2384</v>
       </c>
-      <c r="G290" s="30" t="s">
+      <c r="G290" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H290" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I290" s="30" t="s">
+      <c r="I290" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J290" s="0" t="s">
@@ -12206,16 +12178,16 @@
       <c r="E291" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F291" s="37" t="n">
+      <c r="F291" s="36" t="n">
         <v>1987</v>
       </c>
-      <c r="G291" s="30" t="s">
+      <c r="G291" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H291" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I291" s="30" t="s">
+      <c r="I291" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J291" s="0" t="s">
@@ -12238,16 +12210,16 @@
       <c r="E292" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F292" s="37" t="n">
+      <c r="F292" s="36" t="n">
         <v>3299</v>
       </c>
-      <c r="G292" s="30" t="s">
+      <c r="G292" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H292" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I292" s="30" t="s">
+      <c r="I292" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J292" s="0" t="s">
@@ -12270,16 +12242,16 @@
       <c r="E293" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F293" s="37" t="n">
+      <c r="F293" s="36" t="n">
         <v>3485</v>
       </c>
-      <c r="G293" s="30" t="s">
+      <c r="G293" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H293" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I293" s="30" t="s">
+      <c r="I293" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J293" s="0" t="s">
@@ -12302,16 +12274,16 @@
       <c r="E294" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F294" s="37" t="n">
+      <c r="F294" s="36" t="n">
         <v>3734</v>
       </c>
-      <c r="G294" s="30" t="s">
+      <c r="G294" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H294" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I294" s="30" t="s">
+      <c r="I294" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J294" s="0" t="s">
@@ -12334,16 +12306,16 @@
       <c r="E295" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F295" s="37" t="n">
+      <c r="F295" s="36" t="n">
         <v>3921</v>
       </c>
-      <c r="G295" s="30" t="s">
+      <c r="G295" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H295" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I295" s="30" t="s">
+      <c r="I295" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J295" s="0" t="s">
@@ -12366,16 +12338,16 @@
       <c r="E296" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F296" s="37" t="n">
+      <c r="F296" s="36" t="n">
         <v>4268</v>
       </c>
-      <c r="G296" s="30" t="s">
+      <c r="G296" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H296" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I296" s="30" t="s">
+      <c r="I296" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J296" s="0" t="s">
@@ -12398,16 +12370,16 @@
       <c r="E297" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F297" s="37" t="n">
+      <c r="F297" s="36" t="n">
         <v>4465</v>
       </c>
-      <c r="G297" s="30" t="s">
+      <c r="G297" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H297" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I297" s="30" t="s">
+      <c r="I297" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J297" s="0" t="s">
@@ -12430,16 +12402,16 @@
       <c r="E298" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F298" s="37" t="n">
+      <c r="F298" s="36" t="n">
         <v>5251</v>
       </c>
-      <c r="G298" s="30" t="s">
+      <c r="G298" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H298" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I298" s="30" t="s">
+      <c r="I298" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J298" s="0" t="s">
@@ -12462,16 +12434,16 @@
       <c r="E299" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F299" s="37" t="n">
+      <c r="F299" s="36" t="n">
         <v>5846</v>
       </c>
-      <c r="G299" s="30" t="s">
+      <c r="G299" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H299" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I299" s="30" t="s">
+      <c r="I299" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J299" s="0" t="s">
@@ -12494,16 +12466,16 @@
       <c r="E300" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F300" s="37" t="n">
+      <c r="F300" s="36" t="n">
         <v>7970</v>
       </c>
-      <c r="G300" s="30" t="s">
+      <c r="G300" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H300" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I300" s="30" t="s">
+      <c r="I300" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J300" s="0" t="s">
@@ -12526,16 +12498,16 @@
       <c r="E301" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F301" s="37" t="n">
+      <c r="F301" s="36" t="n">
         <v>12353</v>
       </c>
-      <c r="G301" s="30" t="s">
+      <c r="G301" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H301" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I301" s="30" t="s">
+      <c r="I301" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J301" s="0" t="s">
@@ -12558,16 +12530,16 @@
       <c r="E302" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F302" s="37" t="n">
+      <c r="F302" s="36" t="n">
         <v>17044</v>
       </c>
-      <c r="G302" s="30" t="s">
+      <c r="G302" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H302" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I302" s="30" t="s">
+      <c r="I302" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J302" s="0" t="s">
@@ -12590,16 +12562,16 @@
       <c r="E303" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F303" s="37" t="n">
+      <c r="F303" s="36" t="n">
         <v>22929</v>
       </c>
-      <c r="G303" s="30" t="s">
+      <c r="G303" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H303" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I303" s="30" t="s">
+      <c r="I303" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J303" s="0" t="s">
@@ -12622,16 +12594,16 @@
       <c r="E304" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F304" s="37" t="n">
+      <c r="F304" s="36" t="n">
         <v>32017</v>
       </c>
-      <c r="G304" s="30" t="s">
+      <c r="G304" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H304" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I304" s="30" t="s">
+      <c r="I304" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J304" s="0" t="s">
@@ -12654,16 +12626,16 @@
       <c r="E305" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F305" s="37" t="n">
+      <c r="F305" s="36" t="n">
         <v>44613</v>
       </c>
-      <c r="G305" s="30" t="s">
+      <c r="G305" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H305" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I305" s="30" t="s">
+      <c r="I305" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J305" s="0" t="s">
@@ -12686,16 +12658,16 @@
       <c r="E306" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F306" s="37" t="n">
+      <c r="F306" s="36" t="n">
         <v>1788</v>
       </c>
-      <c r="G306" s="30" t="s">
+      <c r="G306" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H306" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I306" s="30" t="s">
+      <c r="I306" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J306" s="0" t="s">
@@ -12718,16 +12690,16 @@
       <c r="E307" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F307" s="37" t="n">
+      <c r="F307" s="36" t="n">
         <v>1490</v>
       </c>
-      <c r="G307" s="30" t="s">
+      <c r="G307" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H307" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I307" s="30" t="s">
+      <c r="I307" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J307" s="0" t="s">
@@ -12750,16 +12722,16 @@
       <c r="E308" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F308" s="37" t="n">
+      <c r="F308" s="36" t="n">
         <v>2474</v>
       </c>
-      <c r="G308" s="30" t="s">
+      <c r="G308" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H308" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I308" s="30" t="s">
+      <c r="I308" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J308" s="0" t="s">
@@ -12782,16 +12754,16 @@
       <c r="E309" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F309" s="37" t="n">
+      <c r="F309" s="36" t="n">
         <v>2614</v>
       </c>
-      <c r="G309" s="30" t="s">
+      <c r="G309" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H309" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I309" s="30" t="s">
+      <c r="I309" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J309" s="0" t="s">
@@ -12814,16 +12786,16 @@
       <c r="E310" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F310" s="37" t="n">
+      <c r="F310" s="36" t="n">
         <v>2800</v>
       </c>
-      <c r="G310" s="30" t="s">
+      <c r="G310" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H310" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I310" s="30" t="s">
+      <c r="I310" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J310" s="0" t="s">
@@ -12846,16 +12818,16 @@
       <c r="E311" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F311" s="37" t="n">
+      <c r="F311" s="36" t="n">
         <v>2941</v>
       </c>
-      <c r="G311" s="30" t="s">
+      <c r="G311" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H311" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I311" s="30" t="s">
+      <c r="I311" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J311" s="0" t="s">
@@ -12878,16 +12850,16 @@
       <c r="E312" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F312" s="37" t="n">
+      <c r="F312" s="36" t="n">
         <v>3201</v>
       </c>
-      <c r="G312" s="30" t="s">
+      <c r="G312" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H312" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I312" s="30" t="s">
+      <c r="I312" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J312" s="0" t="s">
@@ -12910,16 +12882,16 @@
       <c r="E313" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F313" s="37" t="n">
+      <c r="F313" s="36" t="n">
         <v>3349</v>
       </c>
-      <c r="G313" s="30" t="s">
+      <c r="G313" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H313" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I313" s="30" t="s">
+      <c r="I313" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J313" s="0" t="s">
@@ -12942,16 +12914,16 @@
       <c r="E314" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F314" s="37" t="n">
+      <c r="F314" s="36" t="n">
         <v>3938</v>
       </c>
-      <c r="G314" s="30" t="s">
+      <c r="G314" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H314" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I314" s="30" t="s">
+      <c r="I314" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J314" s="0" t="s">
@@ -12974,16 +12946,16 @@
       <c r="E315" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F315" s="37" t="n">
+      <c r="F315" s="36" t="n">
         <v>4384</v>
       </c>
-      <c r="G315" s="30" t="s">
+      <c r="G315" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H315" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I315" s="30" t="s">
+      <c r="I315" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J315" s="0" t="s">
@@ -13006,16 +12978,16 @@
       <c r="E316" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F316" s="37" t="n">
+      <c r="F316" s="36" t="n">
         <v>5978</v>
       </c>
-      <c r="G316" s="30" t="s">
+      <c r="G316" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H316" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I316" s="30" t="s">
+      <c r="I316" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J316" s="0" t="s">
@@ -13038,16 +13010,16 @@
       <c r="E317" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F317" s="37" t="n">
+      <c r="F317" s="36" t="n">
         <v>9264</v>
       </c>
-      <c r="G317" s="30" t="s">
+      <c r="G317" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H317" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I317" s="30" t="s">
+      <c r="I317" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J317" s="0" t="s">
@@ -13070,16 +13042,16 @@
       <c r="E318" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F318" s="37" t="n">
+      <c r="F318" s="36" t="n">
         <v>12783</v>
       </c>
-      <c r="G318" s="30" t="s">
+      <c r="G318" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H318" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I318" s="30" t="s">
+      <c r="I318" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J318" s="0" t="s">
@@ -13102,16 +13074,16 @@
       <c r="E319" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F319" s="37" t="n">
+      <c r="F319" s="36" t="n">
         <v>17197</v>
       </c>
-      <c r="G319" s="30" t="s">
+      <c r="G319" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H319" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I319" s="30" t="s">
+      <c r="I319" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J319" s="0" t="s">
@@ -13134,16 +13106,16 @@
       <c r="E320" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F320" s="37" t="n">
+      <c r="F320" s="36" t="n">
         <v>24013</v>
       </c>
-      <c r="G320" s="30" t="s">
+      <c r="G320" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H320" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I320" s="30" t="s">
+      <c r="I320" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J320" s="0" t="s">
@@ -13166,16 +13138,16 @@
       <c r="E321" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F321" s="37" t="n">
+      <c r="F321" s="36" t="n">
         <v>33460</v>
       </c>
-      <c r="G321" s="30" t="s">
+      <c r="G321" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H321" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I321" s="30" t="s">
+      <c r="I321" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J321" s="0" t="s">
@@ -13189,7 +13161,7 @@
       <c r="B322" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C322" s="36" t="s">
+      <c r="C322" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D322" s="0" t="n">
@@ -13198,16 +13170,16 @@
       <c r="E322" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F322" s="37" t="n">
+      <c r="F322" s="36" t="n">
         <v>1788</v>
       </c>
-      <c r="G322" s="30" t="s">
+      <c r="G322" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H322" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I322" s="30" t="s">
+      <c r="I322" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J322" s="0" t="s">
@@ -13221,7 +13193,7 @@
       <c r="B323" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D323" s="0" t="n">
@@ -13230,16 +13202,16 @@
       <c r="E323" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F323" s="37" t="n">
+      <c r="F323" s="36" t="n">
         <v>1490</v>
       </c>
-      <c r="G323" s="30" t="s">
+      <c r="G323" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H323" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I323" s="30" t="s">
+      <c r="I323" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J323" s="0" t="s">
@@ -13253,7 +13225,7 @@
       <c r="B324" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C324" s="36" t="s">
+      <c r="C324" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D324" s="0" t="n">
@@ -13262,16 +13234,16 @@
       <c r="E324" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F324" s="37" t="n">
+      <c r="F324" s="36" t="n">
         <v>2474</v>
       </c>
-      <c r="G324" s="30" t="s">
+      <c r="G324" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H324" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I324" s="30" t="s">
+      <c r="I324" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J324" s="0" t="s">
@@ -13285,7 +13257,7 @@
       <c r="B325" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C325" s="36" t="s">
+      <c r="C325" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D325" s="0" t="n">
@@ -13294,16 +13266,16 @@
       <c r="E325" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F325" s="37" t="n">
+      <c r="F325" s="36" t="n">
         <v>2614</v>
       </c>
-      <c r="G325" s="30" t="s">
+      <c r="G325" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H325" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I325" s="30" t="s">
+      <c r="I325" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J325" s="0" t="s">
@@ -13317,7 +13289,7 @@
       <c r="B326" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C326" s="36" t="s">
+      <c r="C326" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D326" s="0" t="n">
@@ -13326,16 +13298,16 @@
       <c r="E326" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F326" s="37" t="n">
+      <c r="F326" s="36" t="n">
         <v>2800</v>
       </c>
-      <c r="G326" s="30" t="s">
+      <c r="G326" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H326" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I326" s="30" t="s">
+      <c r="I326" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J326" s="0" t="s">
@@ -13349,7 +13321,7 @@
       <c r="B327" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="C327" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D327" s="0" t="n">
@@ -13358,16 +13330,16 @@
       <c r="E327" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F327" s="37" t="n">
+      <c r="F327" s="36" t="n">
         <v>2941</v>
       </c>
-      <c r="G327" s="30" t="s">
+      <c r="G327" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H327" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I327" s="30" t="s">
+      <c r="I327" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J327" s="0" t="s">
@@ -13381,7 +13353,7 @@
       <c r="B328" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C328" s="36" t="s">
+      <c r="C328" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D328" s="0" t="n">
@@ -13390,16 +13362,16 @@
       <c r="E328" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F328" s="37" t="n">
+      <c r="F328" s="36" t="n">
         <v>3201</v>
       </c>
-      <c r="G328" s="30" t="s">
+      <c r="G328" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H328" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I328" s="30" t="s">
+      <c r="I328" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J328" s="0" t="s">
@@ -13413,7 +13385,7 @@
       <c r="B329" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C329" s="36" t="s">
+      <c r="C329" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D329" s="0" t="n">
@@ -13422,16 +13394,16 @@
       <c r="E329" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F329" s="37" t="n">
+      <c r="F329" s="36" t="n">
         <v>3349</v>
       </c>
-      <c r="G329" s="30" t="s">
+      <c r="G329" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H329" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I329" s="30" t="s">
+      <c r="I329" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J329" s="0" t="s">
@@ -13445,7 +13417,7 @@
       <c r="B330" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D330" s="0" t="n">
@@ -13454,16 +13426,16 @@
       <c r="E330" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F330" s="37" t="n">
+      <c r="F330" s="36" t="n">
         <v>3938</v>
       </c>
-      <c r="G330" s="30" t="s">
+      <c r="G330" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H330" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I330" s="30" t="s">
+      <c r="I330" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J330" s="0" t="s">
@@ -13477,7 +13449,7 @@
       <c r="B331" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C331" s="36" t="s">
+      <c r="C331" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D331" s="0" t="n">
@@ -13486,16 +13458,16 @@
       <c r="E331" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F331" s="37" t="n">
+      <c r="F331" s="36" t="n">
         <v>4384</v>
       </c>
-      <c r="G331" s="30" t="s">
+      <c r="G331" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H331" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I331" s="30" t="s">
+      <c r="I331" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J331" s="0" t="s">
@@ -13509,7 +13481,7 @@
       <c r="B332" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C332" s="36" t="s">
+      <c r="C332" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D332" s="0" t="n">
@@ -13518,16 +13490,16 @@
       <c r="E332" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F332" s="37" t="n">
+      <c r="F332" s="36" t="n">
         <v>5978</v>
       </c>
-      <c r="G332" s="30" t="s">
+      <c r="G332" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H332" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I332" s="30" t="s">
+      <c r="I332" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J332" s="0" t="s">
@@ -13541,7 +13513,7 @@
       <c r="B333" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C333" s="36" t="s">
+      <c r="C333" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D333" s="0" t="n">
@@ -13550,16 +13522,16 @@
       <c r="E333" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F333" s="37" t="n">
+      <c r="F333" s="36" t="n">
         <v>9264</v>
       </c>
-      <c r="G333" s="30" t="s">
+      <c r="G333" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H333" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I333" s="30" t="s">
+      <c r="I333" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J333" s="0" t="s">
@@ -13573,7 +13545,7 @@
       <c r="B334" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C334" s="36" t="s">
+      <c r="C334" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D334" s="0" t="n">
@@ -13582,16 +13554,16 @@
       <c r="E334" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F334" s="37" t="n">
+      <c r="F334" s="36" t="n">
         <v>12783</v>
       </c>
-      <c r="G334" s="30" t="s">
+      <c r="G334" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H334" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I334" s="30" t="s">
+      <c r="I334" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J334" s="0" t="s">
@@ -13605,7 +13577,7 @@
       <c r="B335" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D335" s="0" t="n">
@@ -13614,16 +13586,16 @@
       <c r="E335" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F335" s="37" t="n">
+      <c r="F335" s="36" t="n">
         <v>17197</v>
       </c>
-      <c r="G335" s="30" t="s">
+      <c r="G335" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H335" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I335" s="30" t="s">
+      <c r="I335" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J335" s="0" t="s">
@@ -13637,7 +13609,7 @@
       <c r="B336" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C336" s="36" t="s">
+      <c r="C336" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D336" s="0" t="n">
@@ -13646,16 +13618,16 @@
       <c r="E336" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F336" s="37" t="n">
+      <c r="F336" s="36" t="n">
         <v>24013</v>
       </c>
-      <c r="G336" s="30" t="s">
+      <c r="G336" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H336" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I336" s="30" t="s">
+      <c r="I336" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J336" s="0" t="s">
@@ -13669,7 +13641,7 @@
       <c r="B337" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C337" s="36" t="s">
+      <c r="C337" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D337" s="0" t="n">
@@ -13678,16 +13650,16 @@
       <c r="E337" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F337" s="37" t="n">
+      <c r="F337" s="36" t="n">
         <v>33460</v>
       </c>
-      <c r="G337" s="30" t="s">
+      <c r="G337" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H337" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I337" s="30" t="s">
+      <c r="I337" s="29" t="s">
         <v>79</v>
       </c>
       <c r="J337" s="0" t="s">
@@ -13710,7 +13682,7 @@
       <c r="E338" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F338" s="31" t="n">
+      <c r="F338" s="30" t="n">
         <v>4774</v>
       </c>
       <c r="G338" s="12" t="s">
@@ -13719,7 +13691,7 @@
       <c r="H338" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I338" s="30" t="s">
+      <c r="I338" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J338" s="0" t="s">
@@ -13742,7 +13714,7 @@
       <c r="E339" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F339" s="31" t="n">
+      <c r="F339" s="30" t="n">
         <v>3979</v>
       </c>
       <c r="G339" s="12" t="s">
@@ -13751,7 +13723,7 @@
       <c r="H339" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I339" s="30" t="s">
+      <c r="I339" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J339" s="0" t="s">
@@ -13774,7 +13746,7 @@
       <c r="E340" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F340" s="31" t="n">
+      <c r="F340" s="30" t="n">
         <v>5963</v>
       </c>
       <c r="G340" s="12" t="s">
@@ -13783,7 +13755,7 @@
       <c r="H340" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I340" s="30" t="s">
+      <c r="I340" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J340" s="0" t="s">
@@ -13806,7 +13778,7 @@
       <c r="E341" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F341" s="31" t="n">
+      <c r="F341" s="30" t="n">
         <v>6222</v>
       </c>
       <c r="G341" s="12" t="s">
@@ -13815,7 +13787,7 @@
       <c r="H341" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I341" s="30" t="s">
+      <c r="I341" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J341" s="0" t="s">
@@ -13838,7 +13810,7 @@
       <c r="E342" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F342" s="31" t="n">
+      <c r="F342" s="30" t="n">
         <v>6576</v>
       </c>
       <c r="G342" s="12" t="s">
@@ -13847,7 +13819,7 @@
       <c r="H342" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I342" s="30" t="s">
+      <c r="I342" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J342" s="0" t="s">
@@ -13870,7 +13842,7 @@
       <c r="E343" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F343" s="31" t="n">
+      <c r="F343" s="30" t="n">
         <v>6902</v>
       </c>
       <c r="G343" s="12" t="s">
@@ -13879,7 +13851,7 @@
       <c r="H343" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I343" s="30" t="s">
+      <c r="I343" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J343" s="0" t="s">
@@ -13902,7 +13874,7 @@
       <c r="E344" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F344" s="31" t="n">
+      <c r="F344" s="30" t="n">
         <v>7343</v>
       </c>
       <c r="G344" s="12" t="s">
@@ -13911,7 +13883,7 @@
       <c r="H344" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I344" s="30" t="s">
+      <c r="I344" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J344" s="0" t="s">
@@ -13934,7 +13906,7 @@
       <c r="E345" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F345" s="31" t="n">
+      <c r="F345" s="30" t="n">
         <v>7623</v>
       </c>
       <c r="G345" s="12" t="s">
@@ -13943,7 +13915,7 @@
       <c r="H345" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I345" s="30" t="s">
+      <c r="I345" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J345" s="0" t="s">
@@ -13966,7 +13938,7 @@
       <c r="E346" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F346" s="31" t="n">
+      <c r="F346" s="30" t="n">
         <v>8619</v>
       </c>
       <c r="G346" s="12" t="s">
@@ -13975,7 +13947,7 @@
       <c r="H346" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I346" s="30" t="s">
+      <c r="I346" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J346" s="0" t="s">
@@ -13998,7 +13970,7 @@
       <c r="E347" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F347" s="31" t="n">
+      <c r="F347" s="30" t="n">
         <v>9486</v>
       </c>
       <c r="G347" s="12" t="s">
@@ -14007,7 +13979,7 @@
       <c r="H347" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I347" s="30" t="s">
+      <c r="I347" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J347" s="0" t="s">
@@ -14030,7 +14002,7 @@
       <c r="E348" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F348" s="31" t="n">
+      <c r="F348" s="30" t="n">
         <v>12375</v>
       </c>
       <c r="G348" s="12" t="s">
@@ -14039,7 +14011,7 @@
       <c r="H348" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I348" s="30" t="s">
+      <c r="I348" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J348" s="0" t="s">
@@ -14062,7 +14034,7 @@
       <c r="E349" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F349" s="31" t="n">
+      <c r="F349" s="30" t="n">
         <v>18053</v>
       </c>
       <c r="G349" s="12" t="s">
@@ -14071,7 +14043,7 @@
       <c r="H349" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I349" s="30" t="s">
+      <c r="I349" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J349" s="0" t="s">
@@ -14094,7 +14066,7 @@
       <c r="E350" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F350" s="31" t="n">
+      <c r="F350" s="30" t="n">
         <v>25109</v>
       </c>
       <c r="G350" s="12" t="s">
@@ -14103,7 +14075,7 @@
       <c r="H350" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I350" s="30" t="s">
+      <c r="I350" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J350" s="0" t="s">
@@ -14126,7 +14098,7 @@
       <c r="E351" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F351" s="31" t="n">
+      <c r="F351" s="30" t="n">
         <v>34186</v>
       </c>
       <c r="G351" s="12" t="s">
@@ -14135,7 +14107,7 @@
       <c r="H351" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I351" s="30" t="s">
+      <c r="I351" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J351" s="0" t="s">
@@ -14158,7 +14130,7 @@
       <c r="E352" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F352" s="31" t="n">
+      <c r="F352" s="30" t="n">
         <v>47482</v>
       </c>
       <c r="G352" s="12" t="s">
@@ -14167,7 +14139,7 @@
       <c r="H352" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I352" s="30" t="s">
+      <c r="I352" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J352" s="0" t="s">
@@ -14190,7 +14162,7 @@
       <c r="E353" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F353" s="31" t="n">
+      <c r="F353" s="30" t="n">
         <v>66049</v>
       </c>
       <c r="G353" s="12" t="s">
@@ -14199,7 +14171,7 @@
       <c r="H353" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I353" s="30" t="s">
+      <c r="I353" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J353" s="0" t="s">
@@ -14222,7 +14194,7 @@
       <c r="E354" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F354" s="31" t="n">
+      <c r="F354" s="30" t="n">
         <v>3819</v>
       </c>
       <c r="G354" s="12" t="s">
@@ -14231,7 +14203,7 @@
       <c r="H354" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I354" s="30" t="s">
+      <c r="I354" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J354" s="0" t="s">
@@ -14254,7 +14226,7 @@
       <c r="E355" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F355" s="31" t="n">
+      <c r="F355" s="30" t="n">
         <v>3183</v>
       </c>
       <c r="G355" s="12" t="s">
@@ -14263,7 +14235,7 @@
       <c r="H355" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I355" s="30" t="s">
+      <c r="I355" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J355" s="0" t="s">
@@ -14286,7 +14258,7 @@
       <c r="E356" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F356" s="31" t="n">
+      <c r="F356" s="30" t="n">
         <v>4770</v>
       </c>
       <c r="G356" s="12" t="s">
@@ -14295,7 +14267,7 @@
       <c r="H356" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I356" s="30" t="s">
+      <c r="I356" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J356" s="0" t="s">
@@ -14318,7 +14290,7 @@
       <c r="E357" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F357" s="31" t="n">
+      <c r="F357" s="30" t="n">
         <v>4978</v>
       </c>
       <c r="G357" s="12" t="s">
@@ -14327,7 +14299,7 @@
       <c r="H357" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I357" s="30" t="s">
+      <c r="I357" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J357" s="0" t="s">
@@ -14350,7 +14322,7 @@
       <c r="E358" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F358" s="31" t="n">
+      <c r="F358" s="30" t="n">
         <v>5261</v>
       </c>
       <c r="G358" s="12" t="s">
@@ -14359,7 +14331,7 @@
       <c r="H358" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I358" s="30" t="s">
+      <c r="I358" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J358" s="0" t="s">
@@ -14382,7 +14354,7 @@
       <c r="E359" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F359" s="31" t="n">
+      <c r="F359" s="30" t="n">
         <v>5522</v>
       </c>
       <c r="G359" s="12" t="s">
@@ -14391,7 +14363,7 @@
       <c r="H359" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I359" s="30" t="s">
+      <c r="I359" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J359" s="0" t="s">
@@ -14414,7 +14386,7 @@
       <c r="E360" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F360" s="31" t="n">
+      <c r="F360" s="30" t="n">
         <v>5874</v>
       </c>
       <c r="G360" s="12" t="s">
@@ -14423,7 +14395,7 @@
       <c r="H360" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I360" s="30" t="s">
+      <c r="I360" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J360" s="0" t="s">
@@ -14446,7 +14418,7 @@
       <c r="E361" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F361" s="31" t="n">
+      <c r="F361" s="30" t="n">
         <v>6098</v>
       </c>
       <c r="G361" s="12" t="s">
@@ -14455,7 +14427,7 @@
       <c r="H361" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I361" s="30" t="s">
+      <c r="I361" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J361" s="0" t="s">
@@ -14478,7 +14450,7 @@
       <c r="E362" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F362" s="31" t="n">
+      <c r="F362" s="30" t="n">
         <v>6895</v>
       </c>
       <c r="G362" s="12" t="s">
@@ -14487,7 +14459,7 @@
       <c r="H362" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I362" s="30" t="s">
+      <c r="I362" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J362" s="0" t="s">
@@ -14510,7 +14482,7 @@
       <c r="E363" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F363" s="31" t="n">
+      <c r="F363" s="30" t="n">
         <v>7589</v>
       </c>
       <c r="G363" s="12" t="s">
@@ -14519,7 +14491,7 @@
       <c r="H363" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I363" s="30" t="s">
+      <c r="I363" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J363" s="0" t="s">
@@ -14542,7 +14514,7 @@
       <c r="E364" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F364" s="31" t="n">
+      <c r="F364" s="30" t="n">
         <v>9900</v>
       </c>
       <c r="G364" s="12" t="s">
@@ -14551,7 +14523,7 @@
       <c r="H364" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I364" s="30" t="s">
+      <c r="I364" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J364" s="0" t="s">
@@ -14574,7 +14546,7 @@
       <c r="E365" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F365" s="31" t="n">
+      <c r="F365" s="30" t="n">
         <v>14442</v>
       </c>
       <c r="G365" s="12" t="s">
@@ -14583,7 +14555,7 @@
       <c r="H365" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I365" s="30" t="s">
+      <c r="I365" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J365" s="0" t="s">
@@ -14606,7 +14578,7 @@
       <c r="E366" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F366" s="31" t="n">
+      <c r="F366" s="30" t="n">
         <v>20087</v>
       </c>
       <c r="G366" s="12" t="s">
@@ -14615,7 +14587,7 @@
       <c r="H366" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I366" s="30" t="s">
+      <c r="I366" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J366" s="0" t="s">
@@ -14638,7 +14610,7 @@
       <c r="E367" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F367" s="31" t="n">
+      <c r="F367" s="30" t="n">
         <v>27349</v>
       </c>
       <c r="G367" s="12" t="s">
@@ -14647,7 +14619,7 @@
       <c r="H367" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I367" s="30" t="s">
+      <c r="I367" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J367" s="0" t="s">
@@ -14670,7 +14642,7 @@
       <c r="E368" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F368" s="31" t="n">
+      <c r="F368" s="30" t="n">
         <v>37986</v>
       </c>
       <c r="G368" s="12" t="s">
@@ -14679,7 +14651,7 @@
       <c r="H368" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I368" s="30" t="s">
+      <c r="I368" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J368" s="0" t="s">
@@ -14702,7 +14674,7 @@
       <c r="E369" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F369" s="31" t="n">
+      <c r="F369" s="30" t="n">
         <v>52839</v>
       </c>
       <c r="G369" s="12" t="s">
@@ -14711,7 +14683,7 @@
       <c r="H369" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I369" s="30" t="s">
+      <c r="I369" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J369" s="0" t="s">
@@ -14725,7 +14697,7 @@
       <c r="B370" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C370" s="36" t="s">
+      <c r="C370" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D370" s="0" t="n">
@@ -14734,7 +14706,7 @@
       <c r="E370" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F370" s="31" t="n">
+      <c r="F370" s="30" t="n">
         <v>3819</v>
       </c>
       <c r="G370" s="12" t="s">
@@ -14743,7 +14715,7 @@
       <c r="H370" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I370" s="30" t="s">
+      <c r="I370" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J370" s="0" t="s">
@@ -14757,7 +14729,7 @@
       <c r="B371" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D371" s="0" t="n">
@@ -14766,7 +14738,7 @@
       <c r="E371" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F371" s="31" t="n">
+      <c r="F371" s="30" t="n">
         <v>3183</v>
       </c>
       <c r="G371" s="12" t="s">
@@ -14775,7 +14747,7 @@
       <c r="H371" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I371" s="30" t="s">
+      <c r="I371" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J371" s="0" t="s">
@@ -14789,7 +14761,7 @@
       <c r="B372" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C372" s="36" t="s">
+      <c r="C372" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D372" s="0" t="n">
@@ -14798,7 +14770,7 @@
       <c r="E372" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F372" s="31" t="n">
+      <c r="F372" s="30" t="n">
         <v>4770</v>
       </c>
       <c r="G372" s="12" t="s">
@@ -14807,7 +14779,7 @@
       <c r="H372" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I372" s="30" t="s">
+      <c r="I372" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J372" s="0" t="s">
@@ -14821,7 +14793,7 @@
       <c r="B373" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C373" s="36" t="s">
+      <c r="C373" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D373" s="0" t="n">
@@ -14830,7 +14802,7 @@
       <c r="E373" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F373" s="31" t="n">
+      <c r="F373" s="30" t="n">
         <v>4978</v>
       </c>
       <c r="G373" s="12" t="s">
@@ -14839,7 +14811,7 @@
       <c r="H373" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I373" s="30" t="s">
+      <c r="I373" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J373" s="0" t="s">
@@ -14853,7 +14825,7 @@
       <c r="B374" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C374" s="36" t="s">
+      <c r="C374" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D374" s="0" t="n">
@@ -14862,7 +14834,7 @@
       <c r="E374" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F374" s="31" t="n">
+      <c r="F374" s="30" t="n">
         <v>5261</v>
       </c>
       <c r="G374" s="12" t="s">
@@ -14871,7 +14843,7 @@
       <c r="H374" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I374" s="30" t="s">
+      <c r="I374" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J374" s="0" t="s">
@@ -14885,7 +14857,7 @@
       <c r="B375" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C375" s="36" t="s">
+      <c r="C375" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D375" s="0" t="n">
@@ -14894,7 +14866,7 @@
       <c r="E375" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F375" s="31" t="n">
+      <c r="F375" s="30" t="n">
         <v>5522</v>
       </c>
       <c r="G375" s="12" t="s">
@@ -14903,7 +14875,7 @@
       <c r="H375" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I375" s="30" t="s">
+      <c r="I375" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J375" s="0" t="s">
@@ -14917,7 +14889,7 @@
       <c r="B376" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C376" s="36" t="s">
+      <c r="C376" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D376" s="0" t="n">
@@ -14926,7 +14898,7 @@
       <c r="E376" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F376" s="31" t="n">
+      <c r="F376" s="30" t="n">
         <v>5874</v>
       </c>
       <c r="G376" s="12" t="s">
@@ -14935,7 +14907,7 @@
       <c r="H376" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I376" s="30" t="s">
+      <c r="I376" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J376" s="0" t="s">
@@ -14949,7 +14921,7 @@
       <c r="B377" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C377" s="36" t="s">
+      <c r="C377" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D377" s="0" t="n">
@@ -14958,7 +14930,7 @@
       <c r="E377" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F377" s="31" t="n">
+      <c r="F377" s="30" t="n">
         <v>6098</v>
       </c>
       <c r="G377" s="12" t="s">
@@ -14967,7 +14939,7 @@
       <c r="H377" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I377" s="30" t="s">
+      <c r="I377" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J377" s="0" t="s">
@@ -14981,7 +14953,7 @@
       <c r="B378" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D378" s="0" t="n">
@@ -14990,7 +14962,7 @@
       <c r="E378" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F378" s="31" t="n">
+      <c r="F378" s="30" t="n">
         <v>6895</v>
       </c>
       <c r="G378" s="12" t="s">
@@ -14999,7 +14971,7 @@
       <c r="H378" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I378" s="30" t="s">
+      <c r="I378" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J378" s="0" t="s">
@@ -15013,7 +14985,7 @@
       <c r="B379" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C379" s="36" t="s">
+      <c r="C379" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D379" s="0" t="n">
@@ -15022,7 +14994,7 @@
       <c r="E379" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F379" s="31" t="n">
+      <c r="F379" s="30" t="n">
         <v>7589</v>
       </c>
       <c r="G379" s="12" t="s">
@@ -15031,7 +15003,7 @@
       <c r="H379" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I379" s="30" t="s">
+      <c r="I379" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J379" s="0" t="s">
@@ -15045,7 +15017,7 @@
       <c r="B380" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C380" s="36" t="s">
+      <c r="C380" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D380" s="0" t="n">
@@ -15054,7 +15026,7 @@
       <c r="E380" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F380" s="31" t="n">
+      <c r="F380" s="30" t="n">
         <v>9900</v>
       </c>
       <c r="G380" s="12" t="s">
@@ -15063,7 +15035,7 @@
       <c r="H380" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I380" s="30" t="s">
+      <c r="I380" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J380" s="0" t="s">
@@ -15077,7 +15049,7 @@
       <c r="B381" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C381" s="36" t="s">
+      <c r="C381" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D381" s="0" t="n">
@@ -15086,7 +15058,7 @@
       <c r="E381" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F381" s="31" t="n">
+      <c r="F381" s="30" t="n">
         <v>14442</v>
       </c>
       <c r="G381" s="12" t="s">
@@ -15095,7 +15067,7 @@
       <c r="H381" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I381" s="30" t="s">
+      <c r="I381" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J381" s="0" t="s">
@@ -15109,7 +15081,7 @@
       <c r="B382" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C382" s="36" t="s">
+      <c r="C382" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D382" s="0" t="n">
@@ -15118,7 +15090,7 @@
       <c r="E382" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F382" s="31" t="n">
+      <c r="F382" s="30" t="n">
         <v>20087</v>
       </c>
       <c r="G382" s="12" t="s">
@@ -15127,7 +15099,7 @@
       <c r="H382" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I382" s="30" t="s">
+      <c r="I382" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J382" s="0" t="s">
@@ -15141,7 +15113,7 @@
       <c r="B383" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C383" s="36" t="s">
+      <c r="C383" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D383" s="0" t="n">
@@ -15150,7 +15122,7 @@
       <c r="E383" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F383" s="31" t="n">
+      <c r="F383" s="30" t="n">
         <v>27349</v>
       </c>
       <c r="G383" s="12" t="s">
@@ -15159,7 +15131,7 @@
       <c r="H383" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I383" s="30" t="s">
+      <c r="I383" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J383" s="0" t="s">
@@ -15173,7 +15145,7 @@
       <c r="B384" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C384" s="36" t="s">
+      <c r="C384" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D384" s="0" t="n">
@@ -15182,7 +15154,7 @@
       <c r="E384" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F384" s="31" t="n">
+      <c r="F384" s="30" t="n">
         <v>37986</v>
       </c>
       <c r="G384" s="12" t="s">
@@ -15191,7 +15163,7 @@
       <c r="H384" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I384" s="30" t="s">
+      <c r="I384" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J384" s="0" t="s">
@@ -15205,7 +15177,7 @@
       <c r="B385" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D385" s="0" t="n">
@@ -15214,7 +15186,7 @@
       <c r="E385" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F385" s="31" t="n">
+      <c r="F385" s="30" t="n">
         <v>52839</v>
       </c>
       <c r="G385" s="12" t="s">
@@ -15223,7 +15195,7 @@
       <c r="H385" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I385" s="30" t="s">
+      <c r="I385" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J385" s="0" t="s">
@@ -15246,16 +15218,16 @@
       <c r="E386" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F386" s="37" t="n">
+      <c r="F386" s="36" t="n">
         <v>3819</v>
       </c>
-      <c r="G386" s="30" t="s">
+      <c r="G386" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H386" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I386" s="30" t="s">
+      <c r="I386" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J386" s="0" t="s">
@@ -15278,16 +15250,16 @@
       <c r="E387" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F387" s="37" t="n">
+      <c r="F387" s="36" t="n">
         <v>3183</v>
       </c>
-      <c r="G387" s="30" t="s">
+      <c r="G387" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H387" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I387" s="30" t="s">
+      <c r="I387" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J387" s="0" t="s">
@@ -15310,16 +15282,16 @@
       <c r="E388" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F388" s="37" t="n">
+      <c r="F388" s="36" t="n">
         <v>4770</v>
       </c>
-      <c r="G388" s="30" t="s">
+      <c r="G388" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H388" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I388" s="30" t="s">
+      <c r="I388" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J388" s="0" t="s">
@@ -15342,16 +15314,16 @@
       <c r="E389" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F389" s="37" t="n">
+      <c r="F389" s="36" t="n">
         <v>4978</v>
       </c>
-      <c r="G389" s="30" t="s">
+      <c r="G389" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H389" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I389" s="30" t="s">
+      <c r="I389" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J389" s="0" t="s">
@@ -15374,16 +15346,16 @@
       <c r="E390" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F390" s="37" t="n">
+      <c r="F390" s="36" t="n">
         <v>5261</v>
       </c>
-      <c r="G390" s="30" t="s">
+      <c r="G390" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H390" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I390" s="30" t="s">
+      <c r="I390" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J390" s="0" t="s">
@@ -15406,16 +15378,16 @@
       <c r="E391" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F391" s="37" t="n">
+      <c r="F391" s="36" t="n">
         <v>5522</v>
       </c>
-      <c r="G391" s="30" t="s">
+      <c r="G391" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H391" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I391" s="30" t="s">
+      <c r="I391" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J391" s="0" t="s">
@@ -15438,16 +15410,16 @@
       <c r="E392" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F392" s="37" t="n">
+      <c r="F392" s="36" t="n">
         <v>5874</v>
       </c>
-      <c r="G392" s="30" t="s">
+      <c r="G392" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H392" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I392" s="30" t="s">
+      <c r="I392" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J392" s="0" t="s">
@@ -15470,16 +15442,16 @@
       <c r="E393" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F393" s="37" t="n">
+      <c r="F393" s="36" t="n">
         <v>6098</v>
       </c>
-      <c r="G393" s="30" t="s">
+      <c r="G393" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H393" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I393" s="30" t="s">
+      <c r="I393" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J393" s="0" t="s">
@@ -15502,16 +15474,16 @@
       <c r="E394" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F394" s="37" t="n">
+      <c r="F394" s="36" t="n">
         <v>6895</v>
       </c>
-      <c r="G394" s="30" t="s">
+      <c r="G394" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H394" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I394" s="30" t="s">
+      <c r="I394" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J394" s="0" t="s">
@@ -15534,16 +15506,16 @@
       <c r="E395" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F395" s="37" t="n">
+      <c r="F395" s="36" t="n">
         <v>7589</v>
       </c>
-      <c r="G395" s="30" t="s">
+      <c r="G395" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H395" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I395" s="30" t="s">
+      <c r="I395" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J395" s="0" t="s">
@@ -15566,16 +15538,16 @@
       <c r="E396" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F396" s="37" t="n">
+      <c r="F396" s="36" t="n">
         <v>9900</v>
       </c>
-      <c r="G396" s="30" t="s">
+      <c r="G396" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H396" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I396" s="30" t="s">
+      <c r="I396" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J396" s="0" t="s">
@@ -15598,16 +15570,16 @@
       <c r="E397" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F397" s="37" t="n">
+      <c r="F397" s="36" t="n">
         <v>14442</v>
       </c>
-      <c r="G397" s="30" t="s">
+      <c r="G397" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H397" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I397" s="30" t="s">
+      <c r="I397" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J397" s="0" t="s">
@@ -15630,16 +15602,16 @@
       <c r="E398" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F398" s="37" t="n">
+      <c r="F398" s="36" t="n">
         <v>20087</v>
       </c>
-      <c r="G398" s="30" t="s">
+      <c r="G398" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H398" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I398" s="30" t="s">
+      <c r="I398" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J398" s="0" t="s">
@@ -15662,16 +15634,16 @@
       <c r="E399" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F399" s="37" t="n">
+      <c r="F399" s="36" t="n">
         <v>27349</v>
       </c>
-      <c r="G399" s="30" t="s">
+      <c r="G399" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H399" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I399" s="30" t="s">
+      <c r="I399" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J399" s="0" t="s">
@@ -15694,16 +15666,16 @@
       <c r="E400" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F400" s="37" t="n">
+      <c r="F400" s="36" t="n">
         <v>37986</v>
       </c>
-      <c r="G400" s="30" t="s">
+      <c r="G400" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H400" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I400" s="30" t="s">
+      <c r="I400" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J400" s="0" t="s">
@@ -15726,16 +15698,16 @@
       <c r="E401" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F401" s="37" t="n">
+      <c r="F401" s="36" t="n">
         <v>52839</v>
       </c>
-      <c r="G401" s="30" t="s">
+      <c r="G401" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H401" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I401" s="30" t="s">
+      <c r="I401" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J401" s="0" t="s">
@@ -15758,16 +15730,16 @@
       <c r="E402" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F402" s="37" t="n">
+      <c r="F402" s="36" t="n">
         <v>3055</v>
       </c>
-      <c r="G402" s="30" t="s">
+      <c r="G402" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H402" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I402" s="30" t="s">
+      <c r="I402" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J402" s="0" t="s">
@@ -15790,16 +15762,16 @@
       <c r="E403" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F403" s="37" t="n">
+      <c r="F403" s="36" t="n">
         <v>2547</v>
       </c>
-      <c r="G403" s="30" t="s">
+      <c r="G403" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H403" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I403" s="30" t="s">
+      <c r="I403" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J403" s="0" t="s">
@@ -15822,16 +15794,16 @@
       <c r="E404" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F404" s="37" t="n">
+      <c r="F404" s="36" t="n">
         <v>3816</v>
       </c>
-      <c r="G404" s="30" t="s">
+      <c r="G404" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H404" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I404" s="30" t="s">
+      <c r="I404" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J404" s="0" t="s">
@@ -15854,16 +15826,16 @@
       <c r="E405" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F405" s="37" t="n">
+      <c r="F405" s="36" t="n">
         <v>3982</v>
       </c>
-      <c r="G405" s="30" t="s">
+      <c r="G405" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H405" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I405" s="30" t="s">
+      <c r="I405" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J405" s="0" t="s">
@@ -15886,16 +15858,16 @@
       <c r="E406" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F406" s="37" t="n">
+      <c r="F406" s="36" t="n">
         <v>4209</v>
       </c>
-      <c r="G406" s="30" t="s">
+      <c r="G406" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H406" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I406" s="30" t="s">
+      <c r="I406" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J406" s="0" t="s">
@@ -15918,16 +15890,16 @@
       <c r="E407" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F407" s="37" t="n">
+      <c r="F407" s="36" t="n">
         <v>4417</v>
       </c>
-      <c r="G407" s="30" t="s">
+      <c r="G407" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H407" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I407" s="30" t="s">
+      <c r="I407" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J407" s="0" t="s">
@@ -15950,16 +15922,16 @@
       <c r="E408" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F408" s="37" t="n">
+      <c r="F408" s="36" t="n">
         <v>4700</v>
       </c>
-      <c r="G408" s="30" t="s">
+      <c r="G408" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H408" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I408" s="30" t="s">
+      <c r="I408" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J408" s="0" t="s">
@@ -15982,16 +15954,16 @@
       <c r="E409" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F409" s="37" t="n">
+      <c r="F409" s="36" t="n">
         <v>4879</v>
       </c>
-      <c r="G409" s="30" t="s">
+      <c r="G409" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H409" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I409" s="30" t="s">
+      <c r="I409" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J409" s="0" t="s">
@@ -16014,16 +15986,16 @@
       <c r="E410" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F410" s="37" t="n">
+      <c r="F410" s="36" t="n">
         <v>5516</v>
       </c>
-      <c r="G410" s="30" t="s">
+      <c r="G410" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H410" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I410" s="30" t="s">
+      <c r="I410" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J410" s="0" t="s">
@@ -16046,16 +16018,16 @@
       <c r="E411" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F411" s="37" t="n">
+      <c r="F411" s="36" t="n">
         <v>6071</v>
       </c>
-      <c r="G411" s="30" t="s">
+      <c r="G411" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H411" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I411" s="30" t="s">
+      <c r="I411" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J411" s="0" t="s">
@@ -16078,16 +16050,16 @@
       <c r="E412" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F412" s="37" t="n">
+      <c r="F412" s="36" t="n">
         <v>7920</v>
       </c>
-      <c r="G412" s="30" t="s">
+      <c r="G412" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H412" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I412" s="30" t="s">
+      <c r="I412" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J412" s="0" t="s">
@@ -16110,16 +16082,16 @@
       <c r="E413" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F413" s="37" t="n">
+      <c r="F413" s="36" t="n">
         <v>11554</v>
       </c>
-      <c r="G413" s="30" t="s">
+      <c r="G413" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H413" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I413" s="30" t="s">
+      <c r="I413" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J413" s="0" t="s">
@@ -16142,16 +16114,16 @@
       <c r="E414" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F414" s="37" t="n">
+      <c r="F414" s="36" t="n">
         <v>16070</v>
       </c>
-      <c r="G414" s="30" t="s">
+      <c r="G414" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H414" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I414" s="30" t="s">
+      <c r="I414" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J414" s="0" t="s">
@@ -16174,16 +16146,16 @@
       <c r="E415" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F415" s="37" t="n">
+      <c r="F415" s="36" t="n">
         <v>21879</v>
       </c>
-      <c r="G415" s="30" t="s">
+      <c r="G415" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H415" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I415" s="30" t="s">
+      <c r="I415" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J415" s="0" t="s">
@@ -16206,16 +16178,16 @@
       <c r="E416" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F416" s="37" t="n">
+      <c r="F416" s="36" t="n">
         <v>30388</v>
       </c>
-      <c r="G416" s="30" t="s">
+      <c r="G416" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H416" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I416" s="30" t="s">
+      <c r="I416" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J416" s="0" t="s">
@@ -16238,16 +16210,16 @@
       <c r="E417" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F417" s="37" t="n">
+      <c r="F417" s="36" t="n">
         <v>42271</v>
       </c>
-      <c r="G417" s="30" t="s">
+      <c r="G417" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H417" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I417" s="30" t="s">
+      <c r="I417" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J417" s="0" t="s">
@@ -16261,7 +16233,7 @@
       <c r="B418" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C418" s="36" t="s">
+      <c r="C418" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D418" s="0" t="n">
@@ -16270,16 +16242,16 @@
       <c r="E418" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F418" s="37" t="n">
+      <c r="F418" s="36" t="n">
         <v>3055</v>
       </c>
-      <c r="G418" s="30" t="s">
+      <c r="G418" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H418" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I418" s="30" t="s">
+      <c r="I418" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J418" s="0" t="s">
@@ -16293,7 +16265,7 @@
       <c r="B419" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C419" s="36" t="s">
+      <c r="C419" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D419" s="0" t="n">
@@ -16302,16 +16274,16 @@
       <c r="E419" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F419" s="37" t="n">
+      <c r="F419" s="36" t="n">
         <v>2547</v>
       </c>
-      <c r="G419" s="30" t="s">
+      <c r="G419" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H419" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I419" s="30" t="s">
+      <c r="I419" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J419" s="0" t="s">
@@ -16325,7 +16297,7 @@
       <c r="B420" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D420" s="0" t="n">
@@ -16334,16 +16306,16 @@
       <c r="E420" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F420" s="37" t="n">
+      <c r="F420" s="36" t="n">
         <v>3816</v>
       </c>
-      <c r="G420" s="30" t="s">
+      <c r="G420" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H420" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I420" s="30" t="s">
+      <c r="I420" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J420" s="0" t="s">
@@ -16357,7 +16329,7 @@
       <c r="B421" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C421" s="36" t="s">
+      <c r="C421" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D421" s="0" t="n">
@@ -16366,16 +16338,16 @@
       <c r="E421" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F421" s="37" t="n">
+      <c r="F421" s="36" t="n">
         <v>3982</v>
       </c>
-      <c r="G421" s="30" t="s">
+      <c r="G421" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H421" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I421" s="30" t="s">
+      <c r="I421" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J421" s="0" t="s">
@@ -16389,7 +16361,7 @@
       <c r="B422" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C422" s="36" t="s">
+      <c r="C422" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D422" s="0" t="n">
@@ -16398,16 +16370,16 @@
       <c r="E422" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F422" s="37" t="n">
+      <c r="F422" s="36" t="n">
         <v>4209</v>
       </c>
-      <c r="G422" s="30" t="s">
+      <c r="G422" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H422" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I422" s="30" t="s">
+      <c r="I422" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J422" s="0" t="s">
@@ -16421,7 +16393,7 @@
       <c r="B423" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C423" s="36" t="s">
+      <c r="C423" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D423" s="0" t="n">
@@ -16430,16 +16402,16 @@
       <c r="E423" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F423" s="37" t="n">
+      <c r="F423" s="36" t="n">
         <v>4417</v>
       </c>
-      <c r="G423" s="30" t="s">
+      <c r="G423" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H423" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I423" s="30" t="s">
+      <c r="I423" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J423" s="0" t="s">
@@ -16453,7 +16425,7 @@
       <c r="B424" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C424" s="36" t="s">
+      <c r="C424" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D424" s="0" t="n">
@@ -16462,16 +16434,16 @@
       <c r="E424" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F424" s="37" t="n">
+      <c r="F424" s="36" t="n">
         <v>4700</v>
       </c>
-      <c r="G424" s="30" t="s">
+      <c r="G424" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H424" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I424" s="30" t="s">
+      <c r="I424" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J424" s="0" t="s">
@@ -16485,7 +16457,7 @@
       <c r="B425" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C425" s="36" t="s">
+      <c r="C425" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D425" s="0" t="n">
@@ -16494,16 +16466,16 @@
       <c r="E425" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F425" s="37" t="n">
+      <c r="F425" s="36" t="n">
         <v>4879</v>
       </c>
-      <c r="G425" s="30" t="s">
+      <c r="G425" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H425" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I425" s="30" t="s">
+      <c r="I425" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J425" s="0" t="s">
@@ -16517,7 +16489,7 @@
       <c r="B426" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C426" s="36" t="s">
+      <c r="C426" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D426" s="0" t="n">
@@ -16526,16 +16498,16 @@
       <c r="E426" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F426" s="37" t="n">
+      <c r="F426" s="36" t="n">
         <v>5516</v>
       </c>
-      <c r="G426" s="30" t="s">
+      <c r="G426" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H426" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I426" s="30" t="s">
+      <c r="I426" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J426" s="0" t="s">
@@ -16549,7 +16521,7 @@
       <c r="B427" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D427" s="0" t="n">
@@ -16558,16 +16530,16 @@
       <c r="E427" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="F427" s="37" t="n">
+      <c r="F427" s="36" t="n">
         <v>6071</v>
       </c>
-      <c r="G427" s="30" t="s">
+      <c r="G427" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H427" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I427" s="30" t="s">
+      <c r="I427" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J427" s="0" t="s">
@@ -16581,7 +16553,7 @@
       <c r="B428" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C428" s="36" t="s">
+      <c r="C428" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D428" s="0" t="n">
@@ -16590,16 +16562,16 @@
       <c r="E428" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F428" s="37" t="n">
+      <c r="F428" s="36" t="n">
         <v>7920</v>
       </c>
-      <c r="G428" s="30" t="s">
+      <c r="G428" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H428" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I428" s="30" t="s">
+      <c r="I428" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J428" s="0" t="s">
@@ -16613,7 +16585,7 @@
       <c r="B429" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C429" s="36" t="s">
+      <c r="C429" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D429" s="0" t="n">
@@ -16622,16 +16594,16 @@
       <c r="E429" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F429" s="37" t="n">
+      <c r="F429" s="36" t="n">
         <v>11554</v>
       </c>
-      <c r="G429" s="30" t="s">
+      <c r="G429" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H429" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I429" s="30" t="s">
+      <c r="I429" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J429" s="0" t="s">
@@ -16645,7 +16617,7 @@
       <c r="B430" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C430" s="36" t="s">
+      <c r="C430" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D430" s="0" t="n">
@@ -16654,16 +16626,16 @@
       <c r="E430" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="F430" s="37" t="n">
+      <c r="F430" s="36" t="n">
         <v>16070</v>
       </c>
-      <c r="G430" s="30" t="s">
+      <c r="G430" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H430" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I430" s="30" t="s">
+      <c r="I430" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J430" s="0" t="s">
@@ -16677,7 +16649,7 @@
       <c r="B431" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C431" s="36" t="s">
+      <c r="C431" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D431" s="0" t="n">
@@ -16686,16 +16658,16 @@
       <c r="E431" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F431" s="37" t="n">
+      <c r="F431" s="36" t="n">
         <v>21879</v>
       </c>
-      <c r="G431" s="30" t="s">
+      <c r="G431" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H431" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I431" s="30" t="s">
+      <c r="I431" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J431" s="0" t="s">
@@ -16709,7 +16681,7 @@
       <c r="B432" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C432" s="36" t="s">
+      <c r="C432" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D432" s="0" t="n">
@@ -16718,16 +16690,16 @@
       <c r="E432" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F432" s="37" t="n">
+      <c r="F432" s="36" t="n">
         <v>30388</v>
       </c>
-      <c r="G432" s="30" t="s">
+      <c r="G432" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H432" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I432" s="30" t="s">
+      <c r="I432" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J432" s="0" t="s">
@@ -16741,7 +16713,7 @@
       <c r="B433" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="35" t="s">
         <v>94</v>
       </c>
       <c r="D433" s="0" t="n">
@@ -16750,16 +16722,16 @@
       <c r="E433" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="F433" s="37" t="n">
+      <c r="F433" s="36" t="n">
         <v>42271</v>
       </c>
-      <c r="G433" s="30" t="s">
+      <c r="G433" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H433" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="I433" s="30" t="s">
+      <c r="I433" s="29" t="s">
         <v>81</v>
       </c>
       <c r="J433" s="0" t="s">
@@ -16788,7 +16760,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16797,10 +16769,10 @@
       <c r="B1" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="38" t="n">
+      <c r="C1" s="37" t="n">
         <v>250000</v>
       </c>
-      <c r="D1" s="38" t="n">
+      <c r="D1" s="37" t="n">
         <v>250000</v>
       </c>
       <c r="E1" s="5" t="n">
@@ -16824,10 +16796,10 @@
       <c r="B2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="5" t="n">
@@ -16851,10 +16823,10 @@
       <c r="B3" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="5" t="n">
@@ -16920,7 +16892,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.7"/>
@@ -17124,7 +17096,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.59"/>
@@ -17325,7 +17297,7 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.42"/>
@@ -17539,7 +17511,7 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.86"/>
@@ -17693,7 +17665,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.34"/>
@@ -18150,7 +18122,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
@@ -18569,7 +18541,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.32"/>
@@ -18845,7 +18817,7 @@
       <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="121.05"/>
